--- a/e4e3/Notebooks/us_incomes_pctile_race_region.xlsx
+++ b/e4e3/Notebooks/us_incomes_pctile_race_region.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="76">
   <si>
     <t>Year</t>
   </si>
@@ -208,13 +208,13 @@
     <t>95th</t>
   </si>
   <si>
-    <t>White Alone, Not Hispanic</t>
+    <t>White, Not Hispanic</t>
   </si>
   <si>
-    <t>Black Alone or in Combination</t>
+    <t>Black</t>
   </si>
   <si>
-    <t>Asian and Pacific Islander</t>
+    <t>Asian</t>
   </si>
   <si>
     <t>Hispanic (any race)</t>
@@ -599,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D642"/>
+  <dimension ref="A1:D671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4919,13 +4919,13 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B309" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C309">
-        <v>48815</v>
+        <v>71033</v>
       </c>
       <c r="D309" t="s">
         <v>74</v>
@@ -4933,13 +4933,13 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B310" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C310">
-        <v>48936</v>
+        <v>71979</v>
       </c>
       <c r="D310" t="s">
         <v>74</v>
@@ -4947,13 +4947,13 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B311" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C311">
-        <v>48827</v>
+        <v>72030</v>
       </c>
       <c r="D311" t="s">
         <v>74</v>
@@ -4961,13 +4961,13 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B312" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C312">
-        <v>44984</v>
+        <v>70702</v>
       </c>
       <c r="D312" t="s">
         <v>74</v>
@@ -4975,13 +4975,13 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B313" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C313">
-        <v>44197</v>
+        <v>68516</v>
       </c>
       <c r="D313" t="s">
         <v>74</v>
@@ -4989,13 +4989,13 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B314" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C314">
-        <v>44867</v>
+        <v>66909</v>
       </c>
       <c r="D314" t="s">
         <v>74</v>
@@ -5003,13 +5003,13 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B315" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C315">
-        <v>45235</v>
+        <v>65841</v>
       </c>
       <c r="D315" t="s">
         <v>74</v>
@@ -5017,13 +5017,13 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B316" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C316">
-        <v>42554</v>
+        <v>63706</v>
       </c>
       <c r="D316" t="s">
         <v>74</v>
@@ -5031,13 +5031,13 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B317" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C317">
-        <v>40843</v>
+        <v>63272</v>
       </c>
       <c r="D317" t="s">
         <v>74</v>
@@ -5045,13 +5045,13 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B318" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C318">
-        <v>41664</v>
+        <v>63191</v>
       </c>
       <c r="D318" t="s">
         <v>74</v>
@@ -5059,13 +5059,13 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B319" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C319">
-        <v>40512</v>
+        <v>62881</v>
       </c>
       <c r="D319" t="s">
         <v>74</v>
@@ -5073,13 +5073,13 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B320" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C320">
-        <v>39862</v>
+        <v>64407</v>
       </c>
       <c r="D320" t="s">
         <v>74</v>
@@ -5087,13 +5087,13 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B321" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C321">
-        <v>39074</v>
+        <v>65710</v>
       </c>
       <c r="D321" t="s">
         <v>74</v>
@@ -5101,13 +5101,13 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B322" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C322">
-        <v>40044</v>
+        <v>65302</v>
       </c>
       <c r="D322" t="s">
         <v>74</v>
@@ -5115,13 +5115,13 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B323" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C323">
-        <v>41457</v>
+        <v>64547</v>
       </c>
       <c r="D323" t="s">
         <v>74</v>
@@ -5129,13 +5129,13 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B324" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C324">
-        <v>43325</v>
+        <v>63352</v>
       </c>
       <c r="D324" t="s">
         <v>74</v>
@@ -5143,13 +5143,13 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B325" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C325">
-        <v>44656</v>
+        <v>61326</v>
       </c>
       <c r="D325" t="s">
         <v>74</v>
@@ -5157,13 +5157,13 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B326" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C326">
-        <v>43284</v>
+        <v>60119</v>
       </c>
       <c r="D326" t="s">
         <v>74</v>
@@ -5171,13 +5171,13 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B327" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C327">
-        <v>43049</v>
+        <v>58081</v>
       </c>
       <c r="D327" t="s">
         <v>74</v>
@@ -5185,13 +5185,13 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B328" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C328">
-        <v>43473</v>
+        <v>58642</v>
       </c>
       <c r="D328" t="s">
         <v>74</v>
@@ -5199,13 +5199,13 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B329" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C329">
-        <v>43841</v>
+        <v>59693</v>
       </c>
       <c r="D329" t="s">
         <v>74</v>
@@ -5213,13 +5213,13 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B330" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C330">
-        <v>44064</v>
+        <v>61096</v>
       </c>
       <c r="D330" t="s">
         <v>74</v>
@@ -5227,13 +5227,13 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B331" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C331">
-        <v>82277</v>
+        <v>60977</v>
       </c>
       <c r="D331" t="s">
         <v>74</v>
@@ -5241,13 +5241,13 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B332" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C332">
-        <v>87968</v>
+        <v>59442</v>
       </c>
       <c r="D332" t="s">
         <v>74</v>
@@ -5255,13 +5255,13 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B333" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C333">
-        <v>83128</v>
+        <v>58873</v>
       </c>
       <c r="D333" t="s">
         <v>74</v>
@@ -5269,13 +5269,13 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B334" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C334">
-        <v>77696</v>
+        <v>57086</v>
       </c>
       <c r="D334" t="s">
         <v>74</v>
@@ -5283,13 +5283,13 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B335" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C335">
-        <v>76404</v>
+        <v>58682</v>
       </c>
       <c r="D335" t="s">
         <v>74</v>
@@ -5297,13 +5297,13 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B336" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C336">
-        <v>74653</v>
+        <v>60746</v>
       </c>
       <c r="D336" t="s">
         <v>74</v>
@@ -5311,13 +5311,13 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B337" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C337">
-        <v>71926</v>
+        <v>59926</v>
       </c>
       <c r="D337" t="s">
         <v>74</v>
@@ -5325,13 +5325,13 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B338" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C338">
-        <v>73420</v>
+        <v>48815</v>
       </c>
       <c r="D338" t="s">
         <v>74</v>
@@ -5339,13 +5339,13 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B339" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C339">
-        <v>71000</v>
+        <v>48936</v>
       </c>
       <c r="D339" t="s">
         <v>74</v>
@@ -5353,13 +5353,13 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C340">
-        <v>71754</v>
+        <v>48827</v>
       </c>
       <c r="D340" t="s">
         <v>74</v>
@@ -5367,13 +5367,13 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B341" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C341">
-        <v>70908</v>
+        <v>44984</v>
       </c>
       <c r="D341" t="s">
         <v>74</v>
@@ -5381,13 +5381,13 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B342" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C342">
-        <v>77522</v>
+        <v>44197</v>
       </c>
       <c r="D342" t="s">
         <v>74</v>
@@ -5395,13 +5395,13 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B343" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C343">
-        <v>76377</v>
+        <v>44867</v>
       </c>
       <c r="D343" t="s">
         <v>74</v>
@@ -5409,13 +5409,13 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B344" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C344">
-        <v>71248</v>
+        <v>45235</v>
       </c>
       <c r="D344" t="s">
         <v>74</v>
@@ -5423,13 +5423,13 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B345" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C345">
-        <v>73728</v>
+        <v>42554</v>
       </c>
       <c r="D345" t="s">
         <v>74</v>
@@ -5437,13 +5437,13 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B346" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C346">
-        <v>57981</v>
+        <v>40843</v>
       </c>
       <c r="D346" t="s">
         <v>74</v>
@@ -5451,13 +5451,13 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B347" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C347">
-        <v>58015</v>
+        <v>41664</v>
       </c>
       <c r="D347" t="s">
         <v>74</v>
@@ -5465,13 +5465,13 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B348" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C348">
-        <v>59467</v>
+        <v>40512</v>
       </c>
       <c r="D348" t="s">
         <v>74</v>
@@ -5479,13 +5479,13 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B349" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C349">
-        <v>55513</v>
+        <v>39862</v>
       </c>
       <c r="D349" t="s">
         <v>74</v>
@@ -5493,13 +5493,13 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B350" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C350">
-        <v>55448</v>
+        <v>39074</v>
       </c>
       <c r="D350" t="s">
         <v>74</v>
@@ -5507,13 +5507,13 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B351" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C351">
-        <v>55800</v>
+        <v>40044</v>
       </c>
       <c r="D351" t="s">
         <v>74</v>
@@ -5521,13 +5521,13 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B352" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C352">
-        <v>53827</v>
+        <v>41457</v>
       </c>
       <c r="D352" t="s">
         <v>74</v>
@@ -5535,13 +5535,13 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B353" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C353">
-        <v>51631</v>
+        <v>43325</v>
       </c>
       <c r="D353" t="s">
         <v>74</v>
@@ -5549,13 +5549,13 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B354" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C354">
-        <v>48676</v>
+        <v>44656</v>
       </c>
       <c r="D354" t="s">
         <v>74</v>
@@ -5563,13 +5563,13 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B355" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C355">
-        <v>46234</v>
+        <v>43284</v>
       </c>
       <c r="D355" t="s">
         <v>74</v>
@@ -5577,13 +5577,13 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B356" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C356">
-        <v>47720</v>
+        <v>43049</v>
       </c>
       <c r="D356" t="s">
         <v>74</v>
@@ -5591,13 +5591,13 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B357" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C357">
-        <v>46113</v>
+        <v>43473</v>
       </c>
       <c r="D357" t="s">
         <v>74</v>
@@ -5605,13 +5605,13 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B358" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C358">
-        <v>46629</v>
+        <v>43841</v>
       </c>
       <c r="D358" t="s">
         <v>74</v>
@@ -5619,13 +5619,13 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B359" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C359">
-        <v>46863</v>
+        <v>44064</v>
       </c>
       <c r="D359" t="s">
         <v>74</v>
@@ -5633,13 +5633,13 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B360" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C360">
-        <v>48152</v>
+        <v>82277</v>
       </c>
       <c r="D360" t="s">
         <v>74</v>
@@ -5647,13 +5647,13 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B361" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C361">
-        <v>47826</v>
+        <v>87968</v>
       </c>
       <c r="D361" t="s">
         <v>74</v>
@@ -5661,13 +5661,13 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B362" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C362">
-        <v>50666</v>
+        <v>83128</v>
       </c>
       <c r="D362" t="s">
         <v>74</v>
@@ -5675,13 +5675,13 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B363" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C363">
-        <v>50893</v>
+        <v>77696</v>
       </c>
       <c r="D363" t="s">
         <v>74</v>
@@ -5689,13 +5689,13 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B364" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C364">
-        <v>50020</v>
+        <v>76404</v>
       </c>
       <c r="D364" t="s">
         <v>74</v>
@@ -5703,13 +5703,13 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B365" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C365">
-        <v>49276</v>
+        <v>74653</v>
       </c>
       <c r="D365" t="s">
         <v>74</v>
@@ -5717,13 +5717,13 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B366" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C366">
-        <v>48726</v>
+        <v>71926</v>
       </c>
       <c r="D366" t="s">
         <v>74</v>
@@ -5731,13 +5731,13 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B367" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C367">
-        <v>49993</v>
+        <v>73420</v>
       </c>
       <c r="D367" t="s">
         <v>74</v>
@@ -5745,13 +5745,13 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B368" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C368">
-        <v>51490</v>
+        <v>71000</v>
       </c>
       <c r="D368" t="s">
         <v>74</v>
@@ -5759,13 +5759,13 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B369" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C369">
-        <v>52329</v>
+        <v>71754</v>
       </c>
       <c r="D369" t="s">
         <v>74</v>
@@ -5773,13 +5773,13 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B370" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C370">
-        <v>50154</v>
+        <v>70908</v>
       </c>
       <c r="D370" t="s">
         <v>74</v>
@@ -5787,13 +5787,13 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B371" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C371">
-        <v>47197</v>
+        <v>77522</v>
       </c>
       <c r="D371" t="s">
         <v>74</v>
@@ -5801,13 +5801,13 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B372" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C372">
-        <v>44962</v>
+        <v>76377</v>
       </c>
       <c r="D372" t="s">
         <v>74</v>
@@ -5815,13 +5815,13 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B373" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C373">
-        <v>42964</v>
+        <v>71248</v>
       </c>
       <c r="D373" t="s">
         <v>74</v>
@@ -5829,13 +5829,13 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B374" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C374">
-        <v>40484</v>
+        <v>73728</v>
       </c>
       <c r="D374" t="s">
         <v>74</v>
@@ -5843,13 +5843,13 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B375" t="s">
         <v>67</v>
       </c>
       <c r="C375">
-        <v>42477</v>
+        <v>57981</v>
       </c>
       <c r="D375" t="s">
         <v>74</v>
@@ -5857,13 +5857,13 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B376" t="s">
         <v>67</v>
       </c>
       <c r="C376">
-        <v>42374</v>
+        <v>58015</v>
       </c>
       <c r="D376" t="s">
         <v>74</v>
@@ -5871,13 +5871,13 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B377" t="s">
         <v>67</v>
       </c>
       <c r="C377">
-        <v>42893</v>
+        <v>59467</v>
       </c>
       <c r="D377" t="s">
         <v>74</v>
@@ -5885,13 +5885,13 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B378" t="s">
         <v>67</v>
       </c>
       <c r="C378">
-        <v>44143</v>
+        <v>55513</v>
       </c>
       <c r="D378" t="s">
         <v>74</v>
@@ -5899,13 +5899,13 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B379" t="s">
         <v>67</v>
       </c>
       <c r="C379">
-        <v>45021</v>
+        <v>55448</v>
       </c>
       <c r="D379" t="s">
         <v>74</v>
@@ -5913,13 +5913,13 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B380" t="s">
         <v>67</v>
       </c>
       <c r="C380">
-        <v>46376</v>
+        <v>55800</v>
       </c>
       <c r="D380" t="s">
         <v>74</v>
@@ -5927,13 +5927,13 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B381" t="s">
         <v>67</v>
       </c>
       <c r="C381">
-        <v>44954</v>
+        <v>53827</v>
       </c>
       <c r="D381" t="s">
         <v>74</v>
@@ -5941,13 +5941,13 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B382" t="s">
         <v>67</v>
       </c>
       <c r="C382">
-        <v>44238</v>
+        <v>51631</v>
       </c>
       <c r="D382" t="s">
         <v>74</v>
@@ -5955,13 +5955,13 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B383" t="s">
         <v>67</v>
       </c>
       <c r="C383">
-        <v>43431</v>
+        <v>48676</v>
       </c>
       <c r="D383" t="s">
         <v>74</v>
@@ -5969,13 +5969,13 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B384" t="s">
         <v>67</v>
       </c>
       <c r="C384">
-        <v>42055</v>
+        <v>46234</v>
       </c>
       <c r="D384" t="s">
         <v>74</v>
@@ -5983,13 +5983,13 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B385" t="s">
         <v>67</v>
       </c>
       <c r="C385">
-        <v>42321</v>
+        <v>47720</v>
       </c>
       <c r="D385" t="s">
         <v>74</v>
@@ -5997,13 +5997,13 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B386" t="s">
         <v>67</v>
       </c>
       <c r="C386">
-        <v>41265</v>
+        <v>46113</v>
       </c>
       <c r="D386" t="s">
         <v>74</v>
@@ -6011,13 +6011,13 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B387" t="s">
         <v>67</v>
       </c>
       <c r="C387">
-        <v>41058</v>
+        <v>46629</v>
       </c>
       <c r="D387" t="s">
         <v>74</v>
@@ -6025,13 +6025,13 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B388" t="s">
         <v>67</v>
       </c>
       <c r="C388">
-        <v>43887</v>
+        <v>46863</v>
       </c>
       <c r="D388" t="s">
         <v>74</v>
@@ -6039,13 +6039,13 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B389" t="s">
         <v>67</v>
       </c>
       <c r="C389">
-        <v>42854</v>
+        <v>48152</v>
       </c>
       <c r="D389" t="s">
         <v>74</v>
@@ -6053,13 +6053,13 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B390" t="s">
         <v>67</v>
       </c>
       <c r="C390">
-        <v>45527</v>
+        <v>47826</v>
       </c>
       <c r="D390" t="s">
         <v>74</v>
@@ -6067,13 +6067,13 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B391" t="s">
         <v>67</v>
       </c>
       <c r="C391">
-        <v>45109</v>
+        <v>50666</v>
       </c>
       <c r="D391" t="s">
         <v>74</v>
@@ -6081,13 +6081,13 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B392" t="s">
         <v>67</v>
       </c>
       <c r="C392">
-        <v>43482</v>
+        <v>50893</v>
       </c>
       <c r="D392" t="s">
         <v>74</v>
@@ -6095,13 +6095,13 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B393" t="s">
         <v>67</v>
       </c>
       <c r="C393">
-        <v>41545</v>
+        <v>50020</v>
       </c>
       <c r="D393" t="s">
         <v>74</v>
@@ -6109,13 +6109,13 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B394" t="s">
         <v>67</v>
       </c>
       <c r="C394">
-        <v>40704</v>
+        <v>49276</v>
       </c>
       <c r="D394" t="s">
         <v>74</v>
@@ -6123,13 +6123,13 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B395" t="s">
         <v>67</v>
       </c>
       <c r="C395">
-        <v>44253</v>
+        <v>48726</v>
       </c>
       <c r="D395" t="s">
         <v>74</v>
@@ -6137,13 +6137,13 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B396" t="s">
         <v>67</v>
       </c>
       <c r="C396">
-        <v>44513</v>
+        <v>49993</v>
       </c>
       <c r="D396" t="s">
         <v>74</v>
@@ -6151,13 +6151,13 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B397" t="s">
         <v>67</v>
       </c>
       <c r="C397">
-        <v>44587</v>
+        <v>51490</v>
       </c>
       <c r="D397" t="s">
         <v>74</v>
@@ -6165,419 +6165,419 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B398" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C398">
-        <v>70784</v>
+        <v>52329</v>
       </c>
       <c r="D398" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B399" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C399">
-        <v>71186</v>
+        <v>50154</v>
       </c>
       <c r="D399" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B400" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C400">
-        <v>72808</v>
+        <v>47197</v>
       </c>
       <c r="D400" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B401" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C401">
-        <v>68168</v>
+        <v>44962</v>
       </c>
       <c r="D401" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B402" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C402">
-        <v>67571</v>
+        <v>42964</v>
       </c>
       <c r="D402" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B403" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C403">
-        <v>67832</v>
+        <v>40484</v>
       </c>
       <c r="D403" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B404" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C404">
-        <v>66657</v>
+        <v>42477</v>
       </c>
       <c r="D404" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B405" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C405">
-        <v>64631</v>
+        <v>42374</v>
       </c>
       <c r="D405" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B406" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C406">
-        <v>61468</v>
+        <v>42893</v>
       </c>
       <c r="D406" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B407" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C407">
-        <v>62425</v>
+        <v>44143</v>
       </c>
       <c r="D407" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B408" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C408">
-        <v>60507</v>
+        <v>45021</v>
       </c>
       <c r="D408" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B409" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C409">
-        <v>60313</v>
+        <v>46376</v>
       </c>
       <c r="D409" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B410" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C410">
-        <v>60428</v>
+        <v>44954</v>
       </c>
       <c r="D410" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B411" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C411">
-        <v>61364</v>
+        <v>44238</v>
       </c>
       <c r="D411" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B412" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C412">
-        <v>63011</v>
+        <v>43431</v>
       </c>
       <c r="D412" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B413" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C413">
-        <v>63455</v>
+        <v>42055</v>
       </c>
       <c r="D413" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B414" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C414">
-        <v>65801</v>
+        <v>42321</v>
       </c>
       <c r="D414" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B415" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C415">
-        <v>64930</v>
+        <v>41265</v>
       </c>
       <c r="D415" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B416" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C416">
-        <v>64427</v>
+        <v>41058</v>
       </c>
       <c r="D416" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B417" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C417">
-        <v>63745</v>
+        <v>43887</v>
       </c>
       <c r="D417" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B418" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C418">
-        <v>63967</v>
+        <v>42854</v>
       </c>
       <c r="D418" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B419" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C419">
-        <v>64047</v>
+        <v>45527</v>
       </c>
       <c r="D419" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B420" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C420">
-        <v>64779</v>
+        <v>45109</v>
       </c>
       <c r="D420" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B421" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C421">
-        <v>66248</v>
+        <v>43482</v>
       </c>
       <c r="D421" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B422" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C422">
-        <v>66385</v>
+        <v>41545</v>
       </c>
       <c r="D422" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B423" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C423">
-        <v>64781</v>
+        <v>40704</v>
       </c>
       <c r="D423" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B424" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C424">
-        <v>62484</v>
+        <v>44253</v>
       </c>
       <c r="D424" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B425" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C425">
-        <v>61225</v>
+        <v>44513</v>
       </c>
       <c r="D425" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B426" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C426">
-        <v>60348</v>
+        <v>44587</v>
       </c>
       <c r="D426" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B427" t="s">
         <v>68</v>
       </c>
       <c r="C427">
-        <v>58515</v>
+        <v>70784</v>
       </c>
       <c r="D427" t="s">
         <v>75</v>
@@ -6585,13 +6585,13 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B428" t="s">
         <v>68</v>
       </c>
       <c r="C428">
-        <v>57843</v>
+        <v>71186</v>
       </c>
       <c r="D428" t="s">
         <v>75</v>
@@ -6599,13 +6599,13 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B429" t="s">
         <v>68</v>
       </c>
       <c r="C429">
-        <v>58153</v>
+        <v>72808</v>
       </c>
       <c r="D429" t="s">
         <v>75</v>
@@ -6613,13 +6613,13 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B430" t="s">
         <v>68</v>
       </c>
       <c r="C430">
-        <v>58607</v>
+        <v>68168</v>
       </c>
       <c r="D430" t="s">
         <v>75</v>
@@ -6627,13 +6627,13 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B431" t="s">
         <v>68</v>
       </c>
       <c r="C431">
-        <v>60370</v>
+        <v>67571</v>
       </c>
       <c r="D431" t="s">
         <v>75</v>
@@ -6641,13 +6641,13 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B432" t="s">
         <v>68</v>
       </c>
       <c r="C432">
-        <v>61153</v>
+        <v>67832</v>
       </c>
       <c r="D432" t="s">
         <v>75</v>
@@ -6655,13 +6655,13 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B433" t="s">
         <v>68</v>
       </c>
       <c r="C433">
-        <v>60115</v>
+        <v>66657</v>
       </c>
       <c r="D433" t="s">
         <v>75</v>
@@ -6669,13 +6669,13 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B434" t="s">
         <v>68</v>
       </c>
       <c r="C434">
-        <v>59624</v>
+        <v>64631</v>
       </c>
       <c r="D434" t="s">
         <v>75</v>
@@ -6683,13 +6683,13 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B435" t="s">
         <v>68</v>
       </c>
       <c r="C435">
-        <v>58920</v>
+        <v>61468</v>
       </c>
       <c r="D435" t="s">
         <v>75</v>
@@ -6697,13 +6697,13 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B436" t="s">
         <v>68</v>
       </c>
       <c r="C436">
-        <v>56871</v>
+        <v>62425</v>
       </c>
       <c r="D436" t="s">
         <v>75</v>
@@ -6711,13 +6711,13 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B437" t="s">
         <v>68</v>
       </c>
       <c r="C437">
-        <v>55828</v>
+        <v>60507</v>
       </c>
       <c r="D437" t="s">
         <v>75</v>
@@ -6725,13 +6725,13 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B438" t="s">
         <v>68</v>
       </c>
       <c r="C438">
-        <v>54182</v>
+        <v>60313</v>
       </c>
       <c r="D438" t="s">
         <v>75</v>
@@ -6739,13 +6739,13 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B439" t="s">
         <v>68</v>
       </c>
       <c r="C439">
-        <v>54564</v>
+        <v>60428</v>
       </c>
       <c r="D439" t="s">
         <v>75</v>
@@ -6753,13 +6753,13 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B440" t="s">
         <v>68</v>
       </c>
       <c r="C440">
-        <v>54713</v>
+        <v>61364</v>
       </c>
       <c r="D440" t="s">
         <v>75</v>
@@ -6767,13 +6767,13 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B441" t="s">
         <v>68</v>
       </c>
       <c r="C441">
-        <v>55596</v>
+        <v>63011</v>
       </c>
       <c r="D441" t="s">
         <v>75</v>
@@ -6781,13 +6781,13 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B442" t="s">
         <v>68</v>
       </c>
       <c r="C442">
-        <v>57462</v>
+        <v>63455</v>
       </c>
       <c r="D442" t="s">
         <v>75</v>
@@ -6795,13 +6795,13 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B443" t="s">
         <v>68</v>
       </c>
       <c r="C443">
-        <v>57572</v>
+        <v>65801</v>
       </c>
       <c r="D443" t="s">
         <v>75</v>
@@ -6809,13 +6809,13 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B444" t="s">
         <v>68</v>
       </c>
       <c r="C444">
-        <v>55427</v>
+        <v>64930</v>
       </c>
       <c r="D444" t="s">
         <v>75</v>
@@ -6823,13 +6823,13 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B445" t="s">
         <v>68</v>
       </c>
       <c r="C445">
-        <v>55078</v>
+        <v>64427</v>
       </c>
       <c r="D445" t="s">
         <v>75</v>
@@ -6837,13 +6837,13 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B446" t="s">
         <v>68</v>
       </c>
       <c r="C446">
-        <v>54180</v>
+        <v>63745</v>
       </c>
       <c r="D446" t="s">
         <v>75</v>
@@ -6851,13 +6851,13 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B447" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C447">
-        <v>77472</v>
+        <v>63967</v>
       </c>
       <c r="D447" t="s">
         <v>75</v>
@@ -6865,13 +6865,13 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B448" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C448">
-        <v>79032</v>
+        <v>64047</v>
       </c>
       <c r="D448" t="s">
         <v>75</v>
@@ -6879,13 +6879,13 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B449" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C449">
-        <v>80776</v>
+        <v>64779</v>
       </c>
       <c r="D449" t="s">
         <v>75</v>
@@ -6893,13 +6893,13 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B450" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C450">
-        <v>75649</v>
+        <v>66248</v>
       </c>
       <c r="D450" t="s">
         <v>75</v>
@@ -6907,13 +6907,13 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B451" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C451">
-        <v>72498</v>
+        <v>66385</v>
       </c>
       <c r="D451" t="s">
         <v>75</v>
@@ -6921,13 +6921,13 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B452" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C452">
-        <v>73445</v>
+        <v>64781</v>
       </c>
       <c r="D452" t="s">
         <v>75</v>
@@ -6935,13 +6935,13 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B453" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C453">
-        <v>72698</v>
+        <v>62484</v>
       </c>
       <c r="D453" t="s">
         <v>75</v>
@@ -6949,13 +6949,13 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B454" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C454">
-        <v>71111</v>
+        <v>61225</v>
       </c>
       <c r="D454" t="s">
         <v>75</v>
@@ -6963,13 +6963,13 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B455" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C455">
-        <v>67829</v>
+        <v>60348</v>
       </c>
       <c r="D455" t="s">
         <v>75</v>
@@ -6977,13 +6977,13 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B456" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C456">
-        <v>66249</v>
+        <v>58515</v>
       </c>
       <c r="D456" t="s">
         <v>75</v>
@@ -6991,13 +6991,13 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B457" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C457">
-        <v>66141</v>
+        <v>57843</v>
       </c>
       <c r="D457" t="s">
         <v>75</v>
@@ -7005,13 +7005,13 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B458" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C458">
-        <v>64581</v>
+        <v>58153</v>
       </c>
       <c r="D458" t="s">
         <v>75</v>
@@ -7019,13 +7019,13 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B459" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C459">
-        <v>65028</v>
+        <v>58607</v>
       </c>
       <c r="D459" t="s">
         <v>75</v>
@@ -7033,13 +7033,13 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B460" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C460">
-        <v>65997</v>
+        <v>60370</v>
       </c>
       <c r="D460" t="s">
         <v>75</v>
@@ -7047,13 +7047,13 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B461" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C461">
-        <v>67183</v>
+        <v>61153</v>
       </c>
       <c r="D461" t="s">
         <v>75</v>
@@ -7061,13 +7061,13 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B462" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C462">
-        <v>68555</v>
+        <v>60115</v>
       </c>
       <c r="D462" t="s">
         <v>75</v>
@@ -7075,13 +7075,13 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B463" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C463">
-        <v>68474</v>
+        <v>59624</v>
       </c>
       <c r="D463" t="s">
         <v>75</v>
@@ -7089,13 +7089,13 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B464" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C464">
-        <v>70124</v>
+        <v>58920</v>
       </c>
       <c r="D464" t="s">
         <v>75</v>
@@ -7103,13 +7103,13 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B465" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C465">
-        <v>70763</v>
+        <v>56871</v>
       </c>
       <c r="D465" t="s">
         <v>75</v>
@@ -7117,13 +7117,13 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B466" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C466">
-        <v>68816</v>
+        <v>55828</v>
       </c>
       <c r="D466" t="s">
         <v>75</v>
@@ -7131,13 +7131,13 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B467" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C467">
-        <v>69023</v>
+        <v>54182</v>
       </c>
       <c r="D467" t="s">
         <v>75</v>
@@ -7145,13 +7145,13 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B468" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C468">
-        <v>69262</v>
+        <v>54564</v>
       </c>
       <c r="D468" t="s">
         <v>75</v>
@@ -7159,13 +7159,13 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B469" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C469">
-        <v>70130</v>
+        <v>54713</v>
       </c>
       <c r="D469" t="s">
         <v>75</v>
@@ -7173,13 +7173,13 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B470" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C470">
-        <v>69024</v>
+        <v>55596</v>
       </c>
       <c r="D470" t="s">
         <v>75</v>
@@ -7187,13 +7187,13 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B471" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C471">
-        <v>68319</v>
+        <v>57462</v>
       </c>
       <c r="D471" t="s">
         <v>75</v>
@@ -7201,13 +7201,13 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B472" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C472">
-        <v>67695</v>
+        <v>57572</v>
       </c>
       <c r="D472" t="s">
         <v>75</v>
@@ -7215,13 +7215,13 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B473" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C473">
-        <v>65733</v>
+        <v>55427</v>
       </c>
       <c r="D473" t="s">
         <v>75</v>
@@ -7229,13 +7229,13 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B474" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C474">
-        <v>64527</v>
+        <v>55078</v>
       </c>
       <c r="D474" t="s">
         <v>75</v>
@@ -7243,13 +7243,13 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B475" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C475">
-        <v>63952</v>
+        <v>54180</v>
       </c>
       <c r="D475" t="s">
         <v>75</v>
@@ -7257,13 +7257,13 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B476" t="s">
         <v>69</v>
       </c>
       <c r="C476">
-        <v>63343</v>
+        <v>77472</v>
       </c>
       <c r="D476" t="s">
         <v>75</v>
@@ -7271,13 +7271,13 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B477" t="s">
         <v>69</v>
       </c>
       <c r="C477">
-        <v>62483</v>
+        <v>79032</v>
       </c>
       <c r="D477" t="s">
         <v>75</v>
@@ -7285,13 +7285,13 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B478" t="s">
         <v>69</v>
       </c>
       <c r="C478">
-        <v>62638</v>
+        <v>80776</v>
       </c>
       <c r="D478" t="s">
         <v>75</v>
@@ -7299,13 +7299,13 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B479" t="s">
         <v>69</v>
       </c>
       <c r="C479">
-        <v>65106</v>
+        <v>75649</v>
       </c>
       <c r="D479" t="s">
         <v>75</v>
@@ -7313,13 +7313,13 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B480" t="s">
         <v>69</v>
       </c>
       <c r="C480">
-        <v>65880</v>
+        <v>72498</v>
       </c>
       <c r="D480" t="s">
         <v>75</v>
@@ -7327,13 +7327,13 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B481" t="s">
         <v>69</v>
       </c>
       <c r="C481">
-        <v>69059</v>
+        <v>73445</v>
       </c>
       <c r="D481" t="s">
         <v>75</v>
@@ -7341,13 +7341,13 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B482" t="s">
         <v>69</v>
       </c>
       <c r="C482">
-        <v>67181</v>
+        <v>72698</v>
       </c>
       <c r="D482" t="s">
         <v>75</v>
@@ -7355,13 +7355,13 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B483" t="s">
         <v>69</v>
       </c>
       <c r="C483">
-        <v>64435</v>
+        <v>71111</v>
       </c>
       <c r="D483" t="s">
         <v>75</v>
@@ -7369,13 +7369,13 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B484" t="s">
         <v>69</v>
       </c>
       <c r="C484">
-        <v>62699</v>
+        <v>67829</v>
       </c>
       <c r="D484" t="s">
         <v>75</v>
@@ -7383,13 +7383,13 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B485" t="s">
         <v>69</v>
       </c>
       <c r="C485">
-        <v>61367</v>
+        <v>66249</v>
       </c>
       <c r="D485" t="s">
         <v>75</v>
@@ -7397,13 +7397,13 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B486" t="s">
         <v>69</v>
       </c>
       <c r="C486">
-        <v>58654</v>
+        <v>66141</v>
       </c>
       <c r="D486" t="s">
         <v>75</v>
@@ -7411,13 +7411,13 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B487" t="s">
         <v>69</v>
       </c>
       <c r="C487">
-        <v>56602</v>
+        <v>64581</v>
       </c>
       <c r="D487" t="s">
         <v>75</v>
@@ -7425,13 +7425,13 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B488" t="s">
         <v>69</v>
       </c>
       <c r="C488">
-        <v>56014</v>
+        <v>65028</v>
       </c>
       <c r="D488" t="s">
         <v>75</v>
@@ -7439,13 +7439,13 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B489" t="s">
         <v>69</v>
       </c>
       <c r="C489">
-        <v>56867</v>
+        <v>65997</v>
       </c>
       <c r="D489" t="s">
         <v>75</v>
@@ -7453,13 +7453,13 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B490" t="s">
         <v>69</v>
       </c>
       <c r="C490">
-        <v>57109</v>
+        <v>67183</v>
       </c>
       <c r="D490" t="s">
         <v>75</v>
@@ -7467,13 +7467,13 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B491" t="s">
         <v>69</v>
       </c>
       <c r="C491">
-        <v>58869</v>
+        <v>68555</v>
       </c>
       <c r="D491" t="s">
         <v>75</v>
@@ -7481,13 +7481,13 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B492" t="s">
         <v>69</v>
       </c>
       <c r="C492">
-        <v>59273</v>
+        <v>68474</v>
       </c>
       <c r="D492" t="s">
         <v>75</v>
@@ -7495,13 +7495,13 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B493" t="s">
         <v>69</v>
       </c>
       <c r="C493">
-        <v>58122</v>
+        <v>70124</v>
       </c>
       <c r="D493" t="s">
         <v>75</v>
@@ -7509,13 +7509,13 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B494" t="s">
         <v>69</v>
       </c>
       <c r="C494">
-        <v>56763</v>
+        <v>70763</v>
       </c>
       <c r="D494" t="s">
         <v>75</v>
@@ -7523,13 +7523,13 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B495" t="s">
         <v>69</v>
       </c>
       <c r="C495">
-        <v>56654</v>
+        <v>68816</v>
       </c>
       <c r="D495" t="s">
         <v>75</v>
@@ -7537,13 +7537,13 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B496" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C496">
-        <v>71129</v>
+        <v>69023</v>
       </c>
       <c r="D496" t="s">
         <v>75</v>
@@ -7551,13 +7551,13 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B497" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C497">
-        <v>70528</v>
+        <v>69262</v>
       </c>
       <c r="D497" t="s">
         <v>75</v>
@@ -7565,13 +7565,13 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B498" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C498">
-        <v>72439</v>
+        <v>70130</v>
       </c>
       <c r="D498" t="s">
         <v>75</v>
@@ -7579,13 +7579,13 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B499" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C499">
-        <v>69128</v>
+        <v>69024</v>
       </c>
       <c r="D499" t="s">
         <v>75</v>
@@ -7593,13 +7593,13 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B500" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C500">
-        <v>67557</v>
+        <v>68319</v>
       </c>
       <c r="D500" t="s">
         <v>75</v>
@@ -7607,13 +7607,13 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B501" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C501">
-        <v>67571</v>
+        <v>67695</v>
       </c>
       <c r="D501" t="s">
         <v>75</v>
@@ -7621,13 +7621,13 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B502" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C502">
-        <v>65828</v>
+        <v>65733</v>
       </c>
       <c r="D502" t="s">
         <v>75</v>
@@ -7635,13 +7635,13 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B503" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C503">
-        <v>65279</v>
+        <v>64527</v>
       </c>
       <c r="D503" t="s">
         <v>75</v>
@@ -7649,13 +7649,13 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B504" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C504">
-        <v>62166</v>
+        <v>63952</v>
       </c>
       <c r="D504" t="s">
         <v>75</v>
@@ -7663,13 +7663,13 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B505" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C505">
-        <v>62239</v>
+        <v>63343</v>
       </c>
       <c r="D505" t="s">
         <v>75</v>
@@ -7677,13 +7677,13 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B506" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C506">
-        <v>60674</v>
+        <v>62483</v>
       </c>
       <c r="D506" t="s">
         <v>75</v>
@@ -7691,13 +7691,13 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B507" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C507">
-        <v>59677</v>
+        <v>62638</v>
       </c>
       <c r="D507" t="s">
         <v>75</v>
@@ -7705,13 +7705,13 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B508" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C508">
-        <v>58820</v>
+        <v>65106</v>
       </c>
       <c r="D508" t="s">
         <v>75</v>
@@ -7719,13 +7719,13 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B509" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C509">
-        <v>60075</v>
+        <v>65880</v>
       </c>
       <c r="D509" t="s">
         <v>75</v>
@@ -7733,13 +7733,13 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B510" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C510">
-        <v>61872</v>
+        <v>69059</v>
       </c>
       <c r="D510" t="s">
         <v>75</v>
@@ -7747,13 +7747,13 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B511" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C511">
-        <v>63214</v>
+        <v>67181</v>
       </c>
       <c r="D511" t="s">
         <v>75</v>
@@ -7761,13 +7761,13 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B512" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C512">
-        <v>65859</v>
+        <v>64435</v>
       </c>
       <c r="D512" t="s">
         <v>75</v>
@@ -7775,13 +7775,13 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B513" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C513">
-        <v>64438</v>
+        <v>62699</v>
       </c>
       <c r="D513" t="s">
         <v>75</v>
@@ -7789,13 +7789,13 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B514" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C514">
-        <v>63904</v>
+        <v>61367</v>
       </c>
       <c r="D514" t="s">
         <v>75</v>
@@ -7803,13 +7803,13 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B515" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C515">
-        <v>64187</v>
+        <v>58654</v>
       </c>
       <c r="D515" t="s">
         <v>75</v>
@@ -7817,13 +7817,13 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B516" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C516">
-        <v>66055</v>
+        <v>56602</v>
       </c>
       <c r="D516" t="s">
         <v>75</v>
@@ -7831,13 +7831,13 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B517" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C517">
-        <v>65879</v>
+        <v>56014</v>
       </c>
       <c r="D517" t="s">
         <v>75</v>
@@ -7845,13 +7845,13 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B518" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C518">
-        <v>67242</v>
+        <v>56867</v>
       </c>
       <c r="D518" t="s">
         <v>75</v>
@@ -7859,13 +7859,13 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B519" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C519">
-        <v>69831</v>
+        <v>57109</v>
       </c>
       <c r="D519" t="s">
         <v>75</v>
@@ -7873,13 +7873,13 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B520" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C520">
-        <v>69347</v>
+        <v>58869</v>
       </c>
       <c r="D520" t="s">
         <v>75</v>
@@ -7887,13 +7887,13 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B521" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C521">
-        <v>67653</v>
+        <v>59273</v>
       </c>
       <c r="D521" t="s">
         <v>75</v>
@@ -7901,13 +7901,13 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B522" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C522">
-        <v>64698</v>
+        <v>58122</v>
       </c>
       <c r="D522" t="s">
         <v>75</v>
@@ -7915,13 +7915,13 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B523" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C523">
-        <v>63100</v>
+        <v>56763</v>
       </c>
       <c r="D523" t="s">
         <v>75</v>
@@ -7929,13 +7929,13 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B524" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C524">
-        <v>63470</v>
+        <v>56654</v>
       </c>
       <c r="D524" t="s">
         <v>75</v>
@@ -7943,13 +7943,13 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B525" t="s">
         <v>70</v>
       </c>
       <c r="C525">
-        <v>58952</v>
+        <v>71129</v>
       </c>
       <c r="D525" t="s">
         <v>75</v>
@@ -7957,13 +7957,13 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B526" t="s">
         <v>70</v>
       </c>
       <c r="C526">
-        <v>58137</v>
+        <v>70528</v>
       </c>
       <c r="D526" t="s">
         <v>75</v>
@@ -7971,13 +7971,13 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B527" t="s">
         <v>70</v>
       </c>
       <c r="C527">
-        <v>58472</v>
+        <v>72439</v>
       </c>
       <c r="D527" t="s">
         <v>75</v>
@@ -7985,13 +7985,13 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B528" t="s">
         <v>70</v>
       </c>
       <c r="C528">
-        <v>58220</v>
+        <v>69128</v>
       </c>
       <c r="D528" t="s">
         <v>75</v>
@@ -7999,13 +7999,13 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B529" t="s">
         <v>70</v>
       </c>
       <c r="C529">
-        <v>60277</v>
+        <v>67557</v>
       </c>
       <c r="D529" t="s">
         <v>75</v>
@@ -8013,13 +8013,13 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B530" t="s">
         <v>70</v>
       </c>
       <c r="C530">
-        <v>60823</v>
+        <v>67571</v>
       </c>
       <c r="D530" t="s">
         <v>75</v>
@@ -8027,13 +8027,13 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B531" t="s">
         <v>70</v>
       </c>
       <c r="C531">
-        <v>60811</v>
+        <v>65828</v>
       </c>
       <c r="D531" t="s">
         <v>75</v>
@@ -8041,13 +8041,13 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B532" t="s">
         <v>70</v>
       </c>
       <c r="C532">
-        <v>58992</v>
+        <v>65279</v>
       </c>
       <c r="D532" t="s">
         <v>75</v>
@@ -8055,13 +8055,13 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B533" t="s">
         <v>70</v>
       </c>
       <c r="C533">
-        <v>58811</v>
+        <v>62166</v>
       </c>
       <c r="D533" t="s">
         <v>75</v>
@@ -8069,13 +8069,13 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B534" t="s">
         <v>70</v>
       </c>
       <c r="C534">
-        <v>56710</v>
+        <v>62239</v>
       </c>
       <c r="D534" t="s">
         <v>75</v>
@@ -8083,13 +8083,13 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B535" t="s">
         <v>70</v>
       </c>
       <c r="C535">
-        <v>56254</v>
+        <v>60674</v>
       </c>
       <c r="D535" t="s">
         <v>75</v>
@@ -8097,13 +8097,13 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B536" t="s">
         <v>70</v>
       </c>
       <c r="C536">
-        <v>54656</v>
+        <v>59677</v>
       </c>
       <c r="D536" t="s">
         <v>75</v>
@@ -8111,13 +8111,13 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B537" t="s">
         <v>70</v>
       </c>
       <c r="C537">
-        <v>56320</v>
+        <v>58820</v>
       </c>
       <c r="D537" t="s">
         <v>75</v>
@@ -8125,13 +8125,13 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B538" t="s">
         <v>70</v>
       </c>
       <c r="C538">
-        <v>56482</v>
+        <v>60075</v>
       </c>
       <c r="D538" t="s">
         <v>75</v>
@@ -8139,13 +8139,13 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B539" t="s">
         <v>70</v>
       </c>
       <c r="C539">
-        <v>57489</v>
+        <v>61872</v>
       </c>
       <c r="D539" t="s">
         <v>75</v>
@@ -8153,13 +8153,13 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B540" t="s">
         <v>70</v>
       </c>
       <c r="C540">
-        <v>60416</v>
+        <v>63214</v>
       </c>
       <c r="D540" t="s">
         <v>75</v>
@@ -8167,13 +8167,13 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B541" t="s">
         <v>70</v>
       </c>
       <c r="C541">
-        <v>59900</v>
+        <v>65859</v>
       </c>
       <c r="D541" t="s">
         <v>75</v>
@@ -8181,13 +8181,13 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B542" t="s">
         <v>70</v>
       </c>
       <c r="C542">
-        <v>58278</v>
+        <v>64438</v>
       </c>
       <c r="D542" t="s">
         <v>75</v>
@@ -8195,13 +8195,13 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B543" t="s">
         <v>70</v>
       </c>
       <c r="C543">
-        <v>59407</v>
+        <v>63904</v>
       </c>
       <c r="D543" t="s">
         <v>75</v>
@@ -8209,13 +8209,13 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B544" t="s">
         <v>70</v>
       </c>
       <c r="C544">
-        <v>57733</v>
+        <v>64187</v>
       </c>
       <c r="D544" t="s">
         <v>75</v>
@@ -8223,13 +8223,13 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B545" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C545">
-        <v>63368</v>
+        <v>66055</v>
       </c>
       <c r="D545" t="s">
         <v>75</v>
@@ -8237,13 +8237,13 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B546" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C546">
-        <v>64355</v>
+        <v>65879</v>
       </c>
       <c r="D546" t="s">
         <v>75</v>
@@ -8251,13 +8251,13 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B547" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C547">
-        <v>65583</v>
+        <v>67242</v>
       </c>
       <c r="D547" t="s">
         <v>75</v>
@@ -8265,13 +8265,13 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B548" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C548">
-        <v>61823</v>
+        <v>69831</v>
       </c>
       <c r="D548" t="s">
         <v>75</v>
@@ -8279,13 +8279,13 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B549" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C549">
-        <v>61646</v>
+        <v>69347</v>
       </c>
       <c r="D549" t="s">
         <v>75</v>
@@ -8293,13 +8293,13 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B550" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C550">
-        <v>61573</v>
+        <v>67653</v>
       </c>
       <c r="D550" t="s">
         <v>75</v>
@@ -8307,13 +8307,13 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B551" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C551">
-        <v>60811</v>
+        <v>64698</v>
       </c>
       <c r="D551" t="s">
         <v>75</v>
@@ -8321,13 +8321,13 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B552" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C552">
-        <v>58522</v>
+        <v>63100</v>
       </c>
       <c r="D552" t="s">
         <v>75</v>
@@ -8335,13 +8335,13 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B553" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C553">
-        <v>56883</v>
+        <v>63470</v>
       </c>
       <c r="D553" t="s">
         <v>75</v>
@@ -8349,13 +8349,13 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B554" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C554">
-        <v>58078</v>
+        <v>58952</v>
       </c>
       <c r="D554" t="s">
         <v>75</v>
@@ -8363,13 +8363,13 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B555" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C555">
-        <v>56067</v>
+        <v>58137</v>
       </c>
       <c r="D555" t="s">
         <v>75</v>
@@ -8377,13 +8377,13 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B556" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C556">
-        <v>56786</v>
+        <v>58472</v>
       </c>
       <c r="D556" t="s">
         <v>75</v>
@@ -8391,13 +8391,13 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B557" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C557">
-        <v>56619</v>
+        <v>58220</v>
       </c>
       <c r="D557" t="s">
         <v>75</v>
@@ -8405,13 +8405,13 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B558" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C558">
-        <v>56590</v>
+        <v>60277</v>
       </c>
       <c r="D558" t="s">
         <v>75</v>
@@ -8419,13 +8419,13 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B559" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C559">
-        <v>57742</v>
+        <v>60823</v>
       </c>
       <c r="D559" t="s">
         <v>75</v>
@@ -8433,13 +8433,13 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B560" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C560">
-        <v>57510</v>
+        <v>60811</v>
       </c>
       <c r="D560" t="s">
         <v>75</v>
@@ -8447,13 +8447,13 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B561" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C561">
-        <v>60500</v>
+        <v>58992</v>
       </c>
       <c r="D561" t="s">
         <v>75</v>
@@ -8461,13 +8461,13 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B562" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C562">
-        <v>59115</v>
+        <v>58811</v>
       </c>
       <c r="D562" t="s">
         <v>75</v>
@@ -8475,13 +8475,13 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B563" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C563">
-        <v>58603</v>
+        <v>56710</v>
       </c>
       <c r="D563" t="s">
         <v>75</v>
@@ -8489,13 +8489,13 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B564" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C564">
-        <v>58585</v>
+        <v>56254</v>
       </c>
       <c r="D564" t="s">
         <v>75</v>
@@ -8503,13 +8503,13 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B565" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C565">
-        <v>58806</v>
+        <v>54656</v>
       </c>
       <c r="D565" t="s">
         <v>75</v>
@@ -8517,13 +8517,13 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B566" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C566">
-        <v>59687</v>
+        <v>56320</v>
       </c>
       <c r="D566" t="s">
         <v>75</v>
@@ -8531,13 +8531,13 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B567" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C567">
-        <v>59680</v>
+        <v>56482</v>
       </c>
       <c r="D567" t="s">
         <v>75</v>
@@ -8545,13 +8545,13 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B568" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C568">
-        <v>60566</v>
+        <v>57489</v>
       </c>
       <c r="D568" t="s">
         <v>75</v>
@@ -8559,13 +8559,13 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B569" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C569">
-        <v>60918</v>
+        <v>60416</v>
       </c>
       <c r="D569" t="s">
         <v>75</v>
@@ -8573,13 +8573,13 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B570" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C570">
-        <v>59637</v>
+        <v>59900</v>
       </c>
       <c r="D570" t="s">
         <v>75</v>
@@ -8587,13 +8587,13 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B571" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C571">
-        <v>57993</v>
+        <v>58278</v>
       </c>
       <c r="D571" t="s">
         <v>75</v>
@@ -8601,13 +8601,13 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B572" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C572">
-        <v>55929</v>
+        <v>59407</v>
       </c>
       <c r="D572" t="s">
         <v>75</v>
@@ -8615,13 +8615,13 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B573" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C573">
-        <v>54797</v>
+        <v>57733</v>
       </c>
       <c r="D573" t="s">
         <v>75</v>
@@ -8629,13 +8629,13 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B574" t="s">
         <v>71</v>
       </c>
       <c r="C574">
-        <v>54447</v>
+        <v>63368</v>
       </c>
       <c r="D574" t="s">
         <v>75</v>
@@ -8643,13 +8643,13 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B575" t="s">
         <v>71</v>
       </c>
       <c r="C575">
-        <v>52659</v>
+        <v>64355</v>
       </c>
       <c r="D575" t="s">
         <v>75</v>
@@ -8657,13 +8657,13 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B576" t="s">
         <v>71</v>
       </c>
       <c r="C576">
-        <v>52407</v>
+        <v>65583</v>
       </c>
       <c r="D576" t="s">
         <v>75</v>
@@ -8671,13 +8671,13 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B577" t="s">
         <v>71</v>
       </c>
       <c r="C577">
-        <v>52872</v>
+        <v>61823</v>
       </c>
       <c r="D577" t="s">
         <v>75</v>
@@ -8685,13 +8685,13 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B578" t="s">
         <v>71</v>
       </c>
       <c r="C578">
-        <v>54320</v>
+        <v>61646</v>
       </c>
       <c r="D578" t="s">
         <v>75</v>
@@ -8699,13 +8699,13 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B579" t="s">
         <v>71</v>
       </c>
       <c r="C579">
-        <v>54730</v>
+        <v>61573</v>
       </c>
       <c r="D579" t="s">
         <v>75</v>
@@ -8713,13 +8713,13 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B580" t="s">
         <v>71</v>
       </c>
       <c r="C580">
-        <v>54334</v>
+        <v>60811</v>
       </c>
       <c r="D580" t="s">
         <v>75</v>
@@ -8727,13 +8727,13 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B581" t="s">
         <v>71</v>
       </c>
       <c r="C581">
-        <v>54835</v>
+        <v>58522</v>
       </c>
       <c r="D581" t="s">
         <v>75</v>
@@ -8741,13 +8741,13 @@
     </row>
     <row r="582" spans="1:4">
       <c r="A582" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B582" t="s">
         <v>71</v>
       </c>
       <c r="C582">
-        <v>53432</v>
+        <v>56883</v>
       </c>
       <c r="D582" t="s">
         <v>75</v>
@@ -8755,13 +8755,13 @@
     </row>
     <row r="583" spans="1:4">
       <c r="A583" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B583" t="s">
         <v>71</v>
       </c>
       <c r="C583">
-        <v>51523</v>
+        <v>58078</v>
       </c>
       <c r="D583" t="s">
         <v>75</v>
@@ -8769,13 +8769,13 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B584" t="s">
         <v>71</v>
       </c>
       <c r="C584">
-        <v>51364</v>
+        <v>56067</v>
       </c>
       <c r="D584" t="s">
         <v>75</v>
@@ -8783,13 +8783,13 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B585" t="s">
         <v>71</v>
       </c>
       <c r="C585">
-        <v>50293</v>
+        <v>56786</v>
       </c>
       <c r="D585" t="s">
         <v>75</v>
@@ -8797,13 +8797,13 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B586" t="s">
         <v>71</v>
       </c>
       <c r="C586">
-        <v>50290</v>
+        <v>56619</v>
       </c>
       <c r="D586" t="s">
         <v>75</v>
@@ -8811,13 +8811,13 @@
     </row>
     <row r="587" spans="1:4">
       <c r="A587" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B587" t="s">
         <v>71</v>
       </c>
       <c r="C587">
-        <v>49742</v>
+        <v>56590</v>
       </c>
       <c r="D587" t="s">
         <v>75</v>
@@ -8825,13 +8825,13 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B588" t="s">
         <v>71</v>
       </c>
       <c r="C588">
-        <v>51164</v>
+        <v>57742</v>
       </c>
       <c r="D588" t="s">
         <v>75</v>
@@ -8839,13 +8839,13 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B589" t="s">
         <v>71</v>
       </c>
       <c r="C589">
-        <v>52250</v>
+        <v>57510</v>
       </c>
       <c r="D589" t="s">
         <v>75</v>
@@ -8853,13 +8853,13 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B590" t="s">
         <v>71</v>
       </c>
       <c r="C590">
-        <v>52187</v>
+        <v>60500</v>
       </c>
       <c r="D590" t="s">
         <v>75</v>
@@ -8867,13 +8867,13 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B591" t="s">
         <v>71</v>
       </c>
       <c r="C591">
-        <v>50669</v>
+        <v>59115</v>
       </c>
       <c r="D591" t="s">
         <v>75</v>
@@ -8881,13 +8881,13 @@
     </row>
     <row r="592" spans="1:4">
       <c r="A592" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B592" t="s">
         <v>71</v>
       </c>
       <c r="C592">
-        <v>49760</v>
+        <v>58603</v>
       </c>
       <c r="D592" t="s">
         <v>75</v>
@@ -8895,13 +8895,13 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B593" t="s">
         <v>71</v>
       </c>
       <c r="C593">
-        <v>48390</v>
+        <v>58585</v>
       </c>
       <c r="D593" t="s">
         <v>75</v>
@@ -8909,13 +8909,13 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B594" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C594">
-        <v>79430</v>
+        <v>58806</v>
       </c>
       <c r="D594" t="s">
         <v>75</v>
@@ -8923,13 +8923,13 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B595" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C595">
-        <v>78755</v>
+        <v>59687</v>
       </c>
       <c r="D595" t="s">
         <v>75</v>
@@ -8937,13 +8937,13 @@
     </row>
     <row r="596" spans="1:4">
       <c r="A596" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B596" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C596">
-        <v>80297</v>
+        <v>59680</v>
       </c>
       <c r="D596" t="s">
         <v>75</v>
@@ -8951,13 +8951,13 @@
     </row>
     <row r="597" spans="1:4">
       <c r="A597" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B597" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C597">
-        <v>75009</v>
+        <v>60566</v>
       </c>
       <c r="D597" t="s">
         <v>75</v>
@@ -8965,13 +8965,13 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B598" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C598">
-        <v>74010</v>
+        <v>60918</v>
       </c>
       <c r="D598" t="s">
         <v>75</v>
@@ -8979,13 +8979,13 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B599" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C599">
-        <v>74624</v>
+        <v>59637</v>
       </c>
       <c r="D599" t="s">
         <v>75</v>
@@ -8993,13 +8993,13 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B600" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C600">
-        <v>72569</v>
+        <v>57993</v>
       </c>
       <c r="D600" t="s">
         <v>75</v>
@@ -9007,13 +9007,13 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B601" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C601">
-        <v>70265</v>
+        <v>55929</v>
       </c>
       <c r="D601" t="s">
         <v>75</v>
@@ -9021,13 +9021,13 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B602" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C602">
-        <v>66085</v>
+        <v>54797</v>
       </c>
       <c r="D602" t="s">
         <v>75</v>
@@ -9035,13 +9035,13 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B603" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C603">
-        <v>69344</v>
+        <v>54447</v>
       </c>
       <c r="D603" t="s">
         <v>75</v>
@@ -9049,13 +9049,13 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B604" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C604">
-        <v>65449</v>
+        <v>52659</v>
       </c>
       <c r="D604" t="s">
         <v>75</v>
@@ -9063,13 +9063,13 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B605" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C605">
-        <v>65208</v>
+        <v>52407</v>
       </c>
       <c r="D605" t="s">
         <v>75</v>
@@ -9077,13 +9077,13 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B606" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C606">
-        <v>63232</v>
+        <v>52872</v>
       </c>
       <c r="D606" t="s">
         <v>75</v>
@@ -9091,13 +9091,13 @@
     </row>
     <row r="607" spans="1:4">
       <c r="A607" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B607" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C607">
-        <v>65951</v>
+        <v>54320</v>
       </c>
       <c r="D607" t="s">
         <v>75</v>
@@ -9105,13 +9105,13 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B608" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C608">
-        <v>68145</v>
+        <v>54730</v>
       </c>
       <c r="D608" t="s">
         <v>75</v>
@@ -9119,13 +9119,13 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B609" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C609">
-        <v>69488</v>
+        <v>54334</v>
       </c>
       <c r="D609" t="s">
         <v>75</v>
@@ -9133,13 +9133,13 @@
     </row>
     <row r="610" spans="1:4">
       <c r="A610" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B610" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C610">
-        <v>70916</v>
+        <v>54835</v>
       </c>
       <c r="D610" t="s">
         <v>75</v>
@@ -9147,13 +9147,13 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B611" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C611">
-        <v>70383</v>
+        <v>53432</v>
       </c>
       <c r="D611" t="s">
         <v>75</v>
@@ -9161,13 +9161,13 @@
     </row>
     <row r="612" spans="1:4">
       <c r="A612" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B612" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C612">
-        <v>69539</v>
+        <v>51523</v>
       </c>
       <c r="D612" t="s">
         <v>75</v>
@@ -9175,13 +9175,13 @@
     </row>
     <row r="613" spans="1:4">
       <c r="A613" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B613" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C613">
-        <v>68514</v>
+        <v>51364</v>
       </c>
       <c r="D613" t="s">
         <v>75</v>
@@ -9189,13 +9189,13 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B614" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C614">
-        <v>69138</v>
+        <v>50293</v>
       </c>
       <c r="D614" t="s">
         <v>75</v>
@@ -9203,13 +9203,13 @@
     </row>
     <row r="615" spans="1:4">
       <c r="A615" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B615" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C615">
-        <v>68176</v>
+        <v>50290</v>
       </c>
       <c r="D615" t="s">
         <v>75</v>
@@ -9217,13 +9217,13 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B616" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C616">
-        <v>69165</v>
+        <v>49742</v>
       </c>
       <c r="D616" t="s">
         <v>75</v>
@@ -9231,13 +9231,13 @@
     </row>
     <row r="617" spans="1:4">
       <c r="A617" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B617" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C617">
-        <v>70862</v>
+        <v>51164</v>
       </c>
       <c r="D617" t="s">
         <v>75</v>
@@ -9245,13 +9245,13 @@
     </row>
     <row r="618" spans="1:4">
       <c r="A618" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B618" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C618">
-        <v>69434</v>
+        <v>52250</v>
       </c>
       <c r="D618" t="s">
         <v>75</v>
@@ -9259,13 +9259,13 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B619" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C619">
-        <v>68276</v>
+        <v>52187</v>
       </c>
       <c r="D619" t="s">
         <v>75</v>
@@ -9273,13 +9273,13 @@
     </row>
     <row r="620" spans="1:4">
       <c r="A620" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B620" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C620">
-        <v>66126</v>
+        <v>50669</v>
       </c>
       <c r="D620" t="s">
         <v>75</v>
@@ -9287,13 +9287,13 @@
     </row>
     <row r="621" spans="1:4">
       <c r="A621" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B621" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C621">
-        <v>64042</v>
+        <v>49760</v>
       </c>
       <c r="D621" t="s">
         <v>75</v>
@@ -9301,13 +9301,13 @@
     </row>
     <row r="622" spans="1:4">
       <c r="A622" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B622" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C622">
-        <v>63718</v>
+        <v>48390</v>
       </c>
       <c r="D622" t="s">
         <v>75</v>
@@ -9315,13 +9315,13 @@
     </row>
     <row r="623" spans="1:4">
       <c r="A623" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B623" t="s">
         <v>72</v>
       </c>
       <c r="C623">
-        <v>62483</v>
+        <v>79430</v>
       </c>
       <c r="D623" t="s">
         <v>75</v>
@@ -9329,13 +9329,13 @@
     </row>
     <row r="624" spans="1:4">
       <c r="A624" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B624" t="s">
         <v>72</v>
       </c>
       <c r="C624">
-        <v>62468</v>
+        <v>78755</v>
       </c>
       <c r="D624" t="s">
         <v>75</v>
@@ -9343,13 +9343,13 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B625" t="s">
         <v>72</v>
       </c>
       <c r="C625">
-        <v>63255</v>
+        <v>80297</v>
       </c>
       <c r="D625" t="s">
         <v>75</v>
@@ -9357,13 +9357,13 @@
     </row>
     <row r="626" spans="1:4">
       <c r="A626" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B626" t="s">
         <v>72</v>
       </c>
       <c r="C626">
-        <v>62745</v>
+        <v>75009</v>
       </c>
       <c r="D626" t="s">
         <v>75</v>
@@ -9371,13 +9371,13 @@
     </row>
     <row r="627" spans="1:4">
       <c r="A627" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B627" t="s">
         <v>72</v>
       </c>
       <c r="C627">
-        <v>64036</v>
+        <v>74010</v>
       </c>
       <c r="D627" t="s">
         <v>75</v>
@@ -9385,13 +9385,13 @@
     </row>
     <row r="628" spans="1:4">
       <c r="A628" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B628" t="s">
         <v>72</v>
       </c>
       <c r="C628">
-        <v>65765</v>
+        <v>74624</v>
       </c>
       <c r="D628" t="s">
         <v>75</v>
@@ -9399,13 +9399,13 @@
     </row>
     <row r="629" spans="1:4">
       <c r="A629" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B629" t="s">
         <v>72</v>
       </c>
       <c r="C629">
-        <v>63672</v>
+        <v>72569</v>
       </c>
       <c r="D629" t="s">
         <v>75</v>
@@ -9413,13 +9413,13 @@
     </row>
     <row r="630" spans="1:4">
       <c r="A630" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B630" t="s">
         <v>72</v>
       </c>
       <c r="C630">
-        <v>63762</v>
+        <v>70265</v>
       </c>
       <c r="D630" t="s">
         <v>75</v>
@@ -9427,13 +9427,13 @@
     </row>
     <row r="631" spans="1:4">
       <c r="A631" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B631" t="s">
         <v>72</v>
       </c>
       <c r="C631">
-        <v>63899</v>
+        <v>66085</v>
       </c>
       <c r="D631" t="s">
         <v>75</v>
@@ -9441,13 +9441,13 @@
     </row>
     <row r="632" spans="1:4">
       <c r="A632" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B632" t="s">
         <v>72</v>
       </c>
       <c r="C632">
-        <v>62082</v>
+        <v>69344</v>
       </c>
       <c r="D632" t="s">
         <v>75</v>
@@ -9455,13 +9455,13 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B633" t="s">
         <v>72</v>
       </c>
       <c r="C633">
-        <v>60914</v>
+        <v>65449</v>
       </c>
       <c r="D633" t="s">
         <v>75</v>
@@ -9469,13 +9469,13 @@
     </row>
     <row r="634" spans="1:4">
       <c r="A634" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B634" t="s">
         <v>72</v>
       </c>
       <c r="C634">
-        <v>57637</v>
+        <v>65208</v>
       </c>
       <c r="D634" t="s">
         <v>75</v>
@@ -9483,13 +9483,13 @@
     </row>
     <row r="635" spans="1:4">
       <c r="A635" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B635" t="s">
         <v>72</v>
       </c>
       <c r="C635">
-        <v>57326</v>
+        <v>63232</v>
       </c>
       <c r="D635" t="s">
         <v>75</v>
@@ -9497,13 +9497,13 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B636" t="s">
         <v>72</v>
       </c>
       <c r="C636">
-        <v>58642</v>
+        <v>65951</v>
       </c>
       <c r="D636" t="s">
         <v>75</v>
@@ -9511,13 +9511,13 @@
     </row>
     <row r="637" spans="1:4">
       <c r="A637" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B637" t="s">
         <v>72</v>
       </c>
       <c r="C637">
-        <v>59674</v>
+        <v>68145</v>
       </c>
       <c r="D637" t="s">
         <v>75</v>
@@ -9525,13 +9525,13 @@
     </row>
     <row r="638" spans="1:4">
       <c r="A638" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B638" t="s">
         <v>72</v>
       </c>
       <c r="C638">
-        <v>60901</v>
+        <v>69488</v>
       </c>
       <c r="D638" t="s">
         <v>75</v>
@@ -9539,13 +9539,13 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B639" t="s">
         <v>72</v>
       </c>
       <c r="C639">
-        <v>59281</v>
+        <v>70916</v>
       </c>
       <c r="D639" t="s">
         <v>75</v>
@@ -9553,13 +9553,13 @@
     </row>
     <row r="640" spans="1:4">
       <c r="A640" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B640" t="s">
         <v>72</v>
       </c>
       <c r="C640">
-        <v>57093</v>
+        <v>70383</v>
       </c>
       <c r="D640" t="s">
         <v>75</v>
@@ -9567,13 +9567,13 @@
     </row>
     <row r="641" spans="1:4">
       <c r="A641" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B641" t="s">
         <v>72</v>
       </c>
       <c r="C641">
-        <v>56607</v>
+        <v>69539</v>
       </c>
       <c r="D641" t="s">
         <v>75</v>
@@ -9581,15 +9581,421 @@
     </row>
     <row r="642" spans="1:4">
       <c r="A642" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B642" t="s">
         <v>72</v>
       </c>
       <c r="C642">
+        <v>68514</v>
+      </c>
+      <c r="D642" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4">
+      <c r="A643" t="s">
+        <v>22</v>
+      </c>
+      <c r="B643" t="s">
+        <v>72</v>
+      </c>
+      <c r="C643">
+        <v>69138</v>
+      </c>
+      <c r="D643" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4">
+      <c r="A644" t="s">
+        <v>23</v>
+      </c>
+      <c r="B644" t="s">
+        <v>72</v>
+      </c>
+      <c r="C644">
+        <v>68176</v>
+      </c>
+      <c r="D644" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4">
+      <c r="A645" t="s">
+        <v>24</v>
+      </c>
+      <c r="B645" t="s">
+        <v>72</v>
+      </c>
+      <c r="C645">
+        <v>69165</v>
+      </c>
+      <c r="D645" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4">
+      <c r="A646" t="s">
+        <v>25</v>
+      </c>
+      <c r="B646" t="s">
+        <v>72</v>
+      </c>
+      <c r="C646">
+        <v>70862</v>
+      </c>
+      <c r="D646" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4">
+      <c r="A647" t="s">
+        <v>26</v>
+      </c>
+      <c r="B647" t="s">
+        <v>72</v>
+      </c>
+      <c r="C647">
+        <v>69434</v>
+      </c>
+      <c r="D647" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4">
+      <c r="A648" t="s">
+        <v>27</v>
+      </c>
+      <c r="B648" t="s">
+        <v>72</v>
+      </c>
+      <c r="C648">
+        <v>68276</v>
+      </c>
+      <c r="D648" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4">
+      <c r="A649" t="s">
+        <v>28</v>
+      </c>
+      <c r="B649" t="s">
+        <v>72</v>
+      </c>
+      <c r="C649">
+        <v>66126</v>
+      </c>
+      <c r="D649" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4">
+      <c r="A650" t="s">
+        <v>29</v>
+      </c>
+      <c r="B650" t="s">
+        <v>72</v>
+      </c>
+      <c r="C650">
+        <v>64042</v>
+      </c>
+      <c r="D650" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4">
+      <c r="A651" t="s">
+        <v>30</v>
+      </c>
+      <c r="B651" t="s">
+        <v>72</v>
+      </c>
+      <c r="C651">
+        <v>63718</v>
+      </c>
+      <c r="D651" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4">
+      <c r="A652" t="s">
+        <v>31</v>
+      </c>
+      <c r="B652" t="s">
+        <v>72</v>
+      </c>
+      <c r="C652">
+        <v>62483</v>
+      </c>
+      <c r="D652" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4">
+      <c r="A653" t="s">
+        <v>32</v>
+      </c>
+      <c r="B653" t="s">
+        <v>72</v>
+      </c>
+      <c r="C653">
+        <v>62468</v>
+      </c>
+      <c r="D653" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4">
+      <c r="A654" t="s">
+        <v>33</v>
+      </c>
+      <c r="B654" t="s">
+        <v>72</v>
+      </c>
+      <c r="C654">
+        <v>63255</v>
+      </c>
+      <c r="D654" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4">
+      <c r="A655" t="s">
+        <v>34</v>
+      </c>
+      <c r="B655" t="s">
+        <v>72</v>
+      </c>
+      <c r="C655">
+        <v>62745</v>
+      </c>
+      <c r="D655" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4">
+      <c r="A656" t="s">
+        <v>35</v>
+      </c>
+      <c r="B656" t="s">
+        <v>72</v>
+      </c>
+      <c r="C656">
+        <v>64036</v>
+      </c>
+      <c r="D656" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4">
+      <c r="A657" t="s">
+        <v>36</v>
+      </c>
+      <c r="B657" t="s">
+        <v>72</v>
+      </c>
+      <c r="C657">
+        <v>65765</v>
+      </c>
+      <c r="D657" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4">
+      <c r="A658" t="s">
+        <v>37</v>
+      </c>
+      <c r="B658" t="s">
+        <v>72</v>
+      </c>
+      <c r="C658">
+        <v>63672</v>
+      </c>
+      <c r="D658" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4">
+      <c r="A659" t="s">
+        <v>38</v>
+      </c>
+      <c r="B659" t="s">
+        <v>72</v>
+      </c>
+      <c r="C659">
+        <v>63762</v>
+      </c>
+      <c r="D659" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4">
+      <c r="A660" t="s">
+        <v>39</v>
+      </c>
+      <c r="B660" t="s">
+        <v>72</v>
+      </c>
+      <c r="C660">
+        <v>63899</v>
+      </c>
+      <c r="D660" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" t="s">
+        <v>40</v>
+      </c>
+      <c r="B661" t="s">
+        <v>72</v>
+      </c>
+      <c r="C661">
+        <v>62082</v>
+      </c>
+      <c r="D661" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4">
+      <c r="A662" t="s">
+        <v>41</v>
+      </c>
+      <c r="B662" t="s">
+        <v>72</v>
+      </c>
+      <c r="C662">
+        <v>60914</v>
+      </c>
+      <c r="D662" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4">
+      <c r="A663" t="s">
+        <v>42</v>
+      </c>
+      <c r="B663" t="s">
+        <v>72</v>
+      </c>
+      <c r="C663">
+        <v>57637</v>
+      </c>
+      <c r="D663" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4">
+      <c r="A664" t="s">
+        <v>43</v>
+      </c>
+      <c r="B664" t="s">
+        <v>72</v>
+      </c>
+      <c r="C664">
+        <v>57326</v>
+      </c>
+      <c r="D664" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4">
+      <c r="A665" t="s">
+        <v>44</v>
+      </c>
+      <c r="B665" t="s">
+        <v>72</v>
+      </c>
+      <c r="C665">
+        <v>58642</v>
+      </c>
+      <c r="D665" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4">
+      <c r="A666" t="s">
+        <v>45</v>
+      </c>
+      <c r="B666" t="s">
+        <v>72</v>
+      </c>
+      <c r="C666">
+        <v>59674</v>
+      </c>
+      <c r="D666" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4">
+      <c r="A667" t="s">
+        <v>46</v>
+      </c>
+      <c r="B667" t="s">
+        <v>72</v>
+      </c>
+      <c r="C667">
+        <v>60901</v>
+      </c>
+      <c r="D667" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4">
+      <c r="A668" t="s">
+        <v>47</v>
+      </c>
+      <c r="B668" t="s">
+        <v>72</v>
+      </c>
+      <c r="C668">
+        <v>59281</v>
+      </c>
+      <c r="D668" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4">
+      <c r="A669" t="s">
+        <v>48</v>
+      </c>
+      <c r="B669" t="s">
+        <v>72</v>
+      </c>
+      <c r="C669">
+        <v>57093</v>
+      </c>
+      <c r="D669" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" t="s">
+        <v>49</v>
+      </c>
+      <c r="B670" t="s">
+        <v>72</v>
+      </c>
+      <c r="C670">
+        <v>56607</v>
+      </c>
+      <c r="D670" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" t="s">
+        <v>50</v>
+      </c>
+      <c r="B671" t="s">
+        <v>72</v>
+      </c>
+      <c r="C671">
         <v>55966</v>
       </c>
-      <c r="D642" t="s">
+      <c r="D671" t="s">
         <v>75</v>
       </c>
     </row>

--- a/e4e3/Notebooks/us_incomes_pctile_race_region.xlsx
+++ b/e4e3/Notebooks/us_incomes_pctile_race_region.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="78">
   <si>
     <t>Year</t>
   </si>
@@ -211,16 +211,16 @@
     <t>All Races</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Hispanic (any race)</t>
+  </si>
+  <si>
     <t>White, Not Hispanic</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t>Asian</t>
-  </si>
-  <si>
-    <t>Hispanic (any race)</t>
   </si>
   <si>
     <t>United States</t>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D829"/>
+  <dimension ref="A1:D830"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4617,13 +4617,13 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B287" t="s">
         <v>64</v>
       </c>
       <c r="C287">
-        <v>70784</v>
+        <v>50803</v>
       </c>
       <c r="D287" t="s">
         <v>76</v>
@@ -4631,13 +4631,13 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B288" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C288">
-        <v>71186</v>
+        <v>30761</v>
       </c>
       <c r="D288" t="s">
         <v>76</v>
@@ -4645,13 +4645,13 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B289" t="s">
         <v>64</v>
       </c>
       <c r="C289">
-        <v>72808</v>
+        <v>52992</v>
       </c>
       <c r="D289" t="s">
         <v>76</v>
@@ -4659,13 +4659,13 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B290" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C290">
-        <v>68168</v>
+        <v>32536</v>
       </c>
       <c r="D290" t="s">
         <v>76</v>
@@ -4673,13 +4673,13 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B291" t="s">
         <v>64</v>
       </c>
       <c r="C291">
-        <v>67571</v>
+        <v>54962</v>
       </c>
       <c r="D291" t="s">
         <v>76</v>
@@ -4687,13 +4687,13 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B292" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C292">
-        <v>67832</v>
+        <v>34672</v>
       </c>
       <c r="D292" t="s">
         <v>76</v>
@@ -4701,13 +4701,13 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B293" t="s">
         <v>64</v>
       </c>
       <c r="C293">
-        <v>66657</v>
+        <v>54536</v>
       </c>
       <c r="D293" t="s">
         <v>76</v>
@@ -4715,13 +4715,13 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B294" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C294">
-        <v>64631</v>
+        <v>34574</v>
       </c>
       <c r="D294" t="s">
         <v>76</v>
@@ -4729,13 +4729,13 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B295" t="s">
         <v>64</v>
       </c>
       <c r="C295">
-        <v>61468</v>
+        <v>54006</v>
       </c>
       <c r="D295" t="s">
         <v>76</v>
@@ -4743,13 +4743,13 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B296" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C296">
-        <v>62425</v>
+        <v>33368</v>
       </c>
       <c r="D296" t="s">
         <v>76</v>
@@ -4757,13 +4757,13 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B297" t="s">
         <v>64</v>
       </c>
       <c r="C297">
-        <v>60507</v>
+        <v>56319</v>
       </c>
       <c r="D297" t="s">
         <v>76</v>
@@ -4771,13 +4771,13 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B298" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C298">
-        <v>60313</v>
+        <v>34487</v>
       </c>
       <c r="D298" t="s">
         <v>76</v>
@@ -4785,13 +4785,13 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B299" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C299">
-        <v>60428</v>
+        <v>44587</v>
       </c>
       <c r="D299" t="s">
         <v>76</v>
@@ -4799,13 +4799,13 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B300" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C300">
-        <v>61364</v>
+        <v>59926</v>
       </c>
       <c r="D300" t="s">
         <v>76</v>
@@ -4813,13 +4813,13 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B301" t="s">
         <v>64</v>
       </c>
       <c r="C301">
-        <v>63011</v>
+        <v>57456</v>
       </c>
       <c r="D301" t="s">
         <v>76</v>
@@ -4827,13 +4827,13 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B302" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C302">
-        <v>63455</v>
+        <v>35445</v>
       </c>
       <c r="D302" t="s">
         <v>76</v>
@@ -4841,13 +4841,13 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B303" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C303">
-        <v>65801</v>
+        <v>44513</v>
       </c>
       <c r="D303" t="s">
         <v>76</v>
@@ -4855,13 +4855,13 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B304" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C304">
-        <v>64930</v>
+        <v>60746</v>
       </c>
       <c r="D304" t="s">
         <v>76</v>
@@ -4869,13 +4869,13 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B305" t="s">
         <v>64</v>
       </c>
       <c r="C305">
-        <v>64427</v>
+        <v>55636</v>
       </c>
       <c r="D305" t="s">
         <v>76</v>
@@ -4883,13 +4883,13 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B306" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C306">
-        <v>63745</v>
+        <v>34603</v>
       </c>
       <c r="D306" t="s">
         <v>76</v>
@@ -4897,13 +4897,13 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B307" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C307">
-        <v>63967</v>
+        <v>44253</v>
       </c>
       <c r="D307" t="s">
         <v>76</v>
@@ -4911,13 +4911,13 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B308" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C308">
-        <v>64047</v>
+        <v>58682</v>
       </c>
       <c r="D308" t="s">
         <v>76</v>
@@ -4925,13 +4925,13 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B309" t="s">
         <v>64</v>
       </c>
       <c r="C309">
-        <v>64779</v>
+        <v>54180</v>
       </c>
       <c r="D309" t="s">
         <v>76</v>
@@ -4939,13 +4939,13 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B310" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C310">
-        <v>66248</v>
+        <v>34014</v>
       </c>
       <c r="D310" t="s">
         <v>76</v>
@@ -4953,13 +4953,13 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B311" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C311">
-        <v>66385</v>
+        <v>40704</v>
       </c>
       <c r="D311" t="s">
         <v>76</v>
@@ -4967,13 +4967,13 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B312" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C312">
-        <v>64781</v>
+        <v>57086</v>
       </c>
       <c r="D312" t="s">
         <v>76</v>
@@ -4981,13 +4981,13 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B313" t="s">
         <v>64</v>
       </c>
       <c r="C313">
-        <v>62484</v>
+        <v>55078</v>
       </c>
       <c r="D313" t="s">
         <v>76</v>
@@ -4995,13 +4995,13 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B314" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C314">
-        <v>61225</v>
+        <v>34308</v>
       </c>
       <c r="D314" t="s">
         <v>76</v>
@@ -5009,13 +5009,13 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B315" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C315">
-        <v>60348</v>
+        <v>41545</v>
       </c>
       <c r="D315" t="s">
         <v>76</v>
@@ -5023,13 +5023,13 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B316" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C316">
-        <v>58515</v>
+        <v>58873</v>
       </c>
       <c r="D316" t="s">
         <v>76</v>
@@ -5037,13 +5037,13 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B317" t="s">
         <v>64</v>
       </c>
       <c r="C317">
-        <v>57843</v>
+        <v>55427</v>
       </c>
       <c r="D317" t="s">
         <v>76</v>
@@ -5051,13 +5051,13 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B318" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C318">
-        <v>58153</v>
+        <v>34395</v>
       </c>
       <c r="D318" t="s">
         <v>76</v>
@@ -5065,13 +5065,13 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B319" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C319">
-        <v>58607</v>
+        <v>43482</v>
       </c>
       <c r="D319" t="s">
         <v>76</v>
@@ -5079,13 +5079,13 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B320" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C320">
-        <v>60370</v>
+        <v>59442</v>
       </c>
       <c r="D320" t="s">
         <v>76</v>
@@ -5093,13 +5093,13 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B321" t="s">
         <v>64</v>
       </c>
       <c r="C321">
-        <v>61153</v>
+        <v>57572</v>
       </c>
       <c r="D321" t="s">
         <v>76</v>
@@ -5107,13 +5107,13 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B322" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C322">
-        <v>60115</v>
+        <v>35967</v>
       </c>
       <c r="D322" t="s">
         <v>76</v>
@@ -5121,13 +5121,13 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B323" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C323">
-        <v>59624</v>
+        <v>45109</v>
       </c>
       <c r="D323" t="s">
         <v>76</v>
@@ -5135,13 +5135,13 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B324" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C324">
-        <v>58920</v>
+        <v>60977</v>
       </c>
       <c r="D324" t="s">
         <v>76</v>
@@ -5149,13 +5149,13 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B325" t="s">
         <v>64</v>
       </c>
       <c r="C325">
-        <v>56871</v>
+        <v>57462</v>
       </c>
       <c r="D325" t="s">
         <v>76</v>
@@ -5163,13 +5163,13 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B326" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C326">
-        <v>55828</v>
+        <v>35372</v>
       </c>
       <c r="D326" t="s">
         <v>76</v>
@@ -5177,13 +5177,13 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B327" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C327">
-        <v>54182</v>
+        <v>45527</v>
       </c>
       <c r="D327" t="s">
         <v>76</v>
@@ -5191,13 +5191,13 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B328" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C328">
-        <v>54564</v>
+        <v>61096</v>
       </c>
       <c r="D328" t="s">
         <v>76</v>
@@ -5205,13 +5205,13 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B329" t="s">
         <v>64</v>
       </c>
       <c r="C329">
-        <v>54713</v>
+        <v>55596</v>
       </c>
       <c r="D329" t="s">
         <v>76</v>
@@ -5222,10 +5222,10 @@
         <v>45</v>
       </c>
       <c r="B330" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C330">
-        <v>55596</v>
+        <v>33791</v>
       </c>
       <c r="D330" t="s">
         <v>76</v>
@@ -5233,13 +5233,13 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B331" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C331">
-        <v>57462</v>
+        <v>42854</v>
       </c>
       <c r="D331" t="s">
         <v>76</v>
@@ -5247,13 +5247,13 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B332" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C332">
-        <v>57572</v>
+        <v>59693</v>
       </c>
       <c r="D332" t="s">
         <v>76</v>
@@ -5261,13 +5261,13 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B333" t="s">
         <v>64</v>
       </c>
       <c r="C333">
-        <v>55427</v>
+        <v>54713</v>
       </c>
       <c r="D333" t="s">
         <v>76</v>
@@ -5275,13 +5275,13 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B334" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C334">
-        <v>55078</v>
+        <v>32439</v>
       </c>
       <c r="D334" t="s">
         <v>76</v>
@@ -5289,13 +5289,13 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B335" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C335">
-        <v>54180</v>
+        <v>43887</v>
       </c>
       <c r="D335" t="s">
         <v>76</v>
@@ -5303,13 +5303,13 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B336" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C336">
-        <v>55636</v>
+        <v>58642</v>
       </c>
       <c r="D336" t="s">
         <v>76</v>
@@ -5317,13 +5317,13 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B337" t="s">
         <v>64</v>
       </c>
       <c r="C337">
-        <v>57456</v>
+        <v>54564</v>
       </c>
       <c r="D337" t="s">
         <v>76</v>
@@ -5331,13 +5331,13 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B338" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C338">
-        <v>56319</v>
+        <v>32374</v>
       </c>
       <c r="D338" t="s">
         <v>76</v>
@@ -5345,13 +5345,13 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B339" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C339">
-        <v>54006</v>
+        <v>41058</v>
       </c>
       <c r="D339" t="s">
         <v>76</v>
@@ -5359,13 +5359,13 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B340" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C340">
-        <v>54536</v>
+        <v>58081</v>
       </c>
       <c r="D340" t="s">
         <v>76</v>
@@ -5373,13 +5373,13 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B341" t="s">
         <v>64</v>
       </c>
       <c r="C341">
-        <v>54962</v>
+        <v>54182</v>
       </c>
       <c r="D341" t="s">
         <v>76</v>
@@ -5387,13 +5387,13 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B342" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C342">
-        <v>52992</v>
+        <v>32244</v>
       </c>
       <c r="D342" t="s">
         <v>76</v>
@@ -5401,13 +5401,13 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B343" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C343">
-        <v>50803</v>
+        <v>41265</v>
       </c>
       <c r="D343" t="s">
         <v>76</v>
@@ -5415,13 +5415,13 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B344" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C344">
-        <v>77999</v>
+        <v>55828</v>
       </c>
       <c r="D344" t="s">
         <v>76</v>
@@ -5429,13 +5429,13 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B345" t="s">
         <v>65</v>
       </c>
       <c r="C345">
-        <v>78912</v>
+        <v>33551</v>
       </c>
       <c r="D345" t="s">
         <v>76</v>
@@ -5443,13 +5443,13 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B346" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C346">
-        <v>80602</v>
+        <v>42321</v>
       </c>
       <c r="D346" t="s">
         <v>76</v>
@@ -5457,13 +5457,13 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B347" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C347">
-        <v>76220</v>
+        <v>60119</v>
       </c>
       <c r="D347" t="s">
         <v>76</v>
@@ -5471,13 +5471,13 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B348" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C348">
-        <v>75367</v>
+        <v>56871</v>
       </c>
       <c r="D348" t="s">
         <v>76</v>
@@ -5485,13 +5485,13 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B349" t="s">
         <v>65</v>
       </c>
       <c r="C349">
-        <v>75318</v>
+        <v>35684</v>
       </c>
       <c r="D349" t="s">
         <v>76</v>
@@ -5499,13 +5499,13 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B350" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C350">
-        <v>73433</v>
+        <v>42055</v>
       </c>
       <c r="D350" t="s">
         <v>76</v>
@@ -5513,13 +5513,13 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B351" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C351">
-        <v>71989</v>
+        <v>61326</v>
       </c>
       <c r="D351" t="s">
         <v>76</v>
@@ -5527,13 +5527,13 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B352" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C352">
-        <v>69027</v>
+        <v>58920</v>
       </c>
       <c r="D352" t="s">
         <v>76</v>
@@ -5541,13 +5541,13 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B353" t="s">
         <v>65</v>
       </c>
       <c r="C353">
-        <v>70281</v>
+        <v>35688</v>
       </c>
       <c r="D353" t="s">
         <v>76</v>
@@ -5555,13 +5555,13 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B354" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C354">
-        <v>67882</v>
+        <v>43431</v>
       </c>
       <c r="D354" t="s">
         <v>76</v>
@@ -5569,13 +5569,13 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B355" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C355">
-        <v>67397</v>
+        <v>63352</v>
       </c>
       <c r="D355" t="s">
         <v>76</v>
@@ -5583,13 +5583,13 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B356" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C356">
-        <v>66897</v>
+        <v>59624</v>
       </c>
       <c r="D356" t="s">
         <v>76</v>
@@ -5597,13 +5597,13 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B357" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C357">
-        <v>67820</v>
+        <v>73728</v>
       </c>
       <c r="D357" t="s">
         <v>76</v>
@@ -5611,13 +5611,13 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B358" t="s">
         <v>65</v>
       </c>
       <c r="C358">
-        <v>68940</v>
+        <v>35855</v>
       </c>
       <c r="D358" t="s">
         <v>76</v>
@@ -5625,13 +5625,13 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B359" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C359">
-        <v>70049</v>
+        <v>44238</v>
       </c>
       <c r="D359" t="s">
         <v>76</v>
@@ -5639,13 +5639,13 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B360" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C360">
-        <v>71941</v>
+        <v>64547</v>
       </c>
       <c r="D360" t="s">
         <v>76</v>
@@ -5653,13 +5653,13 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B361" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C361">
-        <v>70617</v>
+        <v>60115</v>
       </c>
       <c r="D361" t="s">
         <v>76</v>
@@ -5667,13 +5667,13 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B362" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C362">
-        <v>70627</v>
+        <v>71248</v>
       </c>
       <c r="D362" t="s">
         <v>76</v>
@@ -5681,13 +5681,13 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B363" t="s">
         <v>65</v>
       </c>
       <c r="C363">
-        <v>70325</v>
+        <v>36228</v>
       </c>
       <c r="D363" t="s">
         <v>76</v>
@@ -5695,13 +5695,13 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B364" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C364">
-        <v>70552</v>
+        <v>44954</v>
       </c>
       <c r="D364" t="s">
         <v>76</v>
@@ -5709,13 +5709,13 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B365" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C365">
-        <v>70829</v>
+        <v>65302</v>
       </c>
       <c r="D365" t="s">
         <v>76</v>
@@ -5723,13 +5723,13 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B366" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C366">
-        <v>71033</v>
+        <v>61153</v>
       </c>
       <c r="D366" t="s">
         <v>76</v>
@@ -5737,13 +5737,13 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B367" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C367">
-        <v>71979</v>
+        <v>76377</v>
       </c>
       <c r="D367" t="s">
         <v>76</v>
@@ -5751,13 +5751,13 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B368" t="s">
         <v>65</v>
       </c>
       <c r="C368">
-        <v>72030</v>
+        <v>38256</v>
       </c>
       <c r="D368" t="s">
         <v>76</v>
@@ -5765,13 +5765,13 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B369" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C369">
-        <v>70702</v>
+        <v>46376</v>
       </c>
       <c r="D369" t="s">
         <v>76</v>
@@ -5779,13 +5779,13 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B370" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C370">
-        <v>68516</v>
+        <v>65710</v>
       </c>
       <c r="D370" t="s">
         <v>76</v>
@@ -5793,13 +5793,13 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B371" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C371">
-        <v>66909</v>
+        <v>60370</v>
       </c>
       <c r="D371" t="s">
         <v>76</v>
@@ -5807,13 +5807,13 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B372" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C372">
-        <v>65841</v>
+        <v>77522</v>
       </c>
       <c r="D372" t="s">
         <v>76</v>
@@ -5821,13 +5821,13 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B373" t="s">
         <v>65</v>
       </c>
       <c r="C373">
-        <v>63706</v>
+        <v>37654</v>
       </c>
       <c r="D373" t="s">
         <v>76</v>
@@ -5835,13 +5835,13 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B374" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C374">
-        <v>63272</v>
+        <v>45021</v>
       </c>
       <c r="D374" t="s">
         <v>76</v>
@@ -5849,13 +5849,13 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B375" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C375">
-        <v>63191</v>
+        <v>64407</v>
       </c>
       <c r="D375" t="s">
         <v>76</v>
@@ -5866,10 +5866,10 @@
         <v>34</v>
       </c>
       <c r="B376" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C376">
-        <v>62881</v>
+        <v>58607</v>
       </c>
       <c r="D376" t="s">
         <v>76</v>
@@ -5877,13 +5877,13 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B377" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C377">
-        <v>64407</v>
+        <v>70908</v>
       </c>
       <c r="D377" t="s">
         <v>76</v>
@@ -5891,13 +5891,13 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B378" t="s">
         <v>65</v>
       </c>
       <c r="C378">
-        <v>65710</v>
+        <v>36587</v>
       </c>
       <c r="D378" t="s">
         <v>76</v>
@@ -5905,13 +5905,13 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B379" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C379">
-        <v>65302</v>
+        <v>44143</v>
       </c>
       <c r="D379" t="s">
         <v>76</v>
@@ -5919,13 +5919,13 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B380" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C380">
-        <v>64547</v>
+        <v>62881</v>
       </c>
       <c r="D380" t="s">
         <v>76</v>
@@ -5933,13 +5933,13 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B381" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C381">
-        <v>63352</v>
+        <v>58153</v>
       </c>
       <c r="D381" t="s">
         <v>76</v>
@@ -5947,13 +5947,13 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B382" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C382">
-        <v>61326</v>
+        <v>71754</v>
       </c>
       <c r="D382" t="s">
         <v>76</v>
@@ -5961,13 +5961,13 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B383" t="s">
         <v>65</v>
       </c>
       <c r="C383">
-        <v>60119</v>
+        <v>35601</v>
       </c>
       <c r="D383" t="s">
         <v>76</v>
@@ -5975,13 +5975,13 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B384" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C384">
-        <v>58081</v>
+        <v>42893</v>
       </c>
       <c r="D384" t="s">
         <v>76</v>
@@ -5989,13 +5989,13 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B385" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C385">
-        <v>58642</v>
+        <v>63191</v>
       </c>
       <c r="D385" t="s">
         <v>76</v>
@@ -6003,13 +6003,13 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B386" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C386">
-        <v>59693</v>
+        <v>57843</v>
       </c>
       <c r="D386" t="s">
         <v>76</v>
@@ -6017,13 +6017,13 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B387" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C387">
-        <v>61096</v>
+        <v>71000</v>
       </c>
       <c r="D387" t="s">
         <v>76</v>
@@ -6031,13 +6031,13 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B388" t="s">
         <v>65</v>
       </c>
       <c r="C388">
-        <v>60977</v>
+        <v>36166</v>
       </c>
       <c r="D388" t="s">
         <v>76</v>
@@ -6045,13 +6045,13 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B389" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C389">
-        <v>59442</v>
+        <v>42374</v>
       </c>
       <c r="D389" t="s">
         <v>76</v>
@@ -6059,13 +6059,13 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B390" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C390">
-        <v>58873</v>
+        <v>63272</v>
       </c>
       <c r="D390" t="s">
         <v>76</v>
@@ -6073,13 +6073,13 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B391" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C391">
-        <v>57086</v>
+        <v>58515</v>
       </c>
       <c r="D391" t="s">
         <v>76</v>
@@ -6087,13 +6087,13 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B392" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C392">
-        <v>58682</v>
+        <v>73420</v>
       </c>
       <c r="D392" t="s">
         <v>76</v>
@@ -6101,13 +6101,13 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B393" t="s">
         <v>65</v>
       </c>
       <c r="C393">
-        <v>60746</v>
+        <v>38135</v>
       </c>
       <c r="D393" t="s">
         <v>76</v>
@@ -6115,13 +6115,13 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B394" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C394">
-        <v>59926</v>
+        <v>42477</v>
       </c>
       <c r="D394" t="s">
         <v>76</v>
@@ -6129,13 +6129,13 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B395" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C395">
-        <v>48815</v>
+        <v>63706</v>
       </c>
       <c r="D395" t="s">
         <v>76</v>
@@ -6143,13 +6143,13 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B396" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C396">
-        <v>48936</v>
+        <v>60348</v>
       </c>
       <c r="D396" t="s">
         <v>76</v>
@@ -6157,13 +6157,13 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B397" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C397">
-        <v>48827</v>
+        <v>71926</v>
       </c>
       <c r="D397" t="s">
         <v>76</v>
@@ -6171,13 +6171,13 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B398" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C398">
-        <v>44984</v>
+        <v>39657</v>
       </c>
       <c r="D398" t="s">
         <v>76</v>
@@ -6185,13 +6185,13 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B399" t="s">
         <v>66</v>
       </c>
       <c r="C399">
-        <v>44197</v>
+        <v>40484</v>
       </c>
       <c r="D399" t="s">
         <v>76</v>
@@ -6199,13 +6199,13 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B400" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C400">
-        <v>44867</v>
+        <v>65841</v>
       </c>
       <c r="D400" t="s">
         <v>76</v>
@@ -6213,13 +6213,13 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B401" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C401">
-        <v>45235</v>
+        <v>61225</v>
       </c>
       <c r="D401" t="s">
         <v>76</v>
@@ -6227,13 +6227,13 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B402" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C402">
-        <v>42554</v>
+        <v>74653</v>
       </c>
       <c r="D402" t="s">
         <v>76</v>
@@ -6241,13 +6241,13 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B403" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C403">
-        <v>40843</v>
+        <v>40507</v>
       </c>
       <c r="D403" t="s">
         <v>76</v>
@@ -6255,13 +6255,13 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B404" t="s">
         <v>66</v>
       </c>
       <c r="C404">
-        <v>41664</v>
+        <v>42964</v>
       </c>
       <c r="D404" t="s">
         <v>76</v>
@@ -6269,13 +6269,13 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B405" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C405">
-        <v>40512</v>
+        <v>66909</v>
       </c>
       <c r="D405" t="s">
         <v>76</v>
@@ -6283,13 +6283,13 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B406" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C406">
-        <v>39862</v>
+        <v>62484</v>
       </c>
       <c r="D406" t="s">
         <v>76</v>
@@ -6297,13 +6297,13 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B407" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C407">
-        <v>39074</v>
+        <v>76404</v>
       </c>
       <c r="D407" t="s">
         <v>76</v>
@@ -6311,13 +6311,13 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B408" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C408">
-        <v>40044</v>
+        <v>42298</v>
       </c>
       <c r="D408" t="s">
         <v>76</v>
@@ -6325,13 +6325,13 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B409" t="s">
         <v>66</v>
       </c>
       <c r="C409">
-        <v>41457</v>
+        <v>44962</v>
       </c>
       <c r="D409" t="s">
         <v>76</v>
@@ -6339,13 +6339,13 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B410" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C410">
-        <v>43325</v>
+        <v>68516</v>
       </c>
       <c r="D410" t="s">
         <v>76</v>
@@ -6353,13 +6353,13 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B411" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C411">
-        <v>44656</v>
+        <v>64781</v>
       </c>
       <c r="D411" t="s">
         <v>76</v>
@@ -6367,13 +6367,13 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B412" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C412">
-        <v>43284</v>
+        <v>77696</v>
       </c>
       <c r="D412" t="s">
         <v>76</v>
@@ -6381,13 +6381,13 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B413" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C413">
-        <v>43049</v>
+        <v>42234</v>
       </c>
       <c r="D413" t="s">
         <v>76</v>
@@ -6395,13 +6395,13 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B414" t="s">
         <v>66</v>
       </c>
       <c r="C414">
-        <v>43473</v>
+        <v>47197</v>
       </c>
       <c r="D414" t="s">
         <v>76</v>
@@ -6409,13 +6409,13 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B415" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C415">
-        <v>43841</v>
+        <v>70702</v>
       </c>
       <c r="D415" t="s">
         <v>76</v>
@@ -6423,13 +6423,13 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B416" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C416">
-        <v>44064</v>
+        <v>66385</v>
       </c>
       <c r="D416" t="s">
         <v>76</v>
@@ -6437,13 +6437,13 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B417" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C417">
-        <v>48297</v>
+        <v>83128</v>
       </c>
       <c r="D417" t="s">
         <v>76</v>
@@ -6451,13 +6451,13 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B418" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C418">
-        <v>48175</v>
+        <v>45528</v>
       </c>
       <c r="D418" t="s">
         <v>76</v>
@@ -6465,13 +6465,13 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B419" t="s">
         <v>66</v>
       </c>
       <c r="C419">
-        <v>48153</v>
+        <v>50154</v>
       </c>
       <c r="D419" t="s">
         <v>76</v>
@@ -6479,13 +6479,13 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B420" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C420">
-        <v>44627</v>
+        <v>72030</v>
       </c>
       <c r="D420" t="s">
         <v>76</v>
@@ -6493,13 +6493,13 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B421" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C421">
-        <v>43509</v>
+        <v>66248</v>
       </c>
       <c r="D421" t="s">
         <v>76</v>
@@ -6507,13 +6507,13 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B422" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C422">
-        <v>44496</v>
+        <v>87968</v>
       </c>
       <c r="D422" t="s">
         <v>76</v>
@@ -6521,13 +6521,13 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B423" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C423">
-        <v>44585</v>
+        <v>46806</v>
       </c>
       <c r="D423" t="s">
         <v>76</v>
@@ -6535,13 +6535,13 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B424" t="s">
         <v>66</v>
       </c>
       <c r="C424">
-        <v>42196</v>
+        <v>52329</v>
       </c>
       <c r="D424" t="s">
         <v>76</v>
@@ -6549,13 +6549,13 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B425" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C425">
-        <v>40551</v>
+        <v>71979</v>
       </c>
       <c r="D425" t="s">
         <v>76</v>
@@ -6563,13 +6563,13 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B426" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C426">
-        <v>41151</v>
+        <v>64779</v>
       </c>
       <c r="D426" t="s">
         <v>76</v>
@@ -6577,13 +6577,13 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B427" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C427">
-        <v>40305</v>
+        <v>82277</v>
       </c>
       <c r="D427" t="s">
         <v>76</v>
@@ -6591,13 +6591,13 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B428" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C428">
-        <v>39393</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="s">
         <v>76</v>
@@ -6605,13 +6605,13 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B429" t="s">
         <v>66</v>
       </c>
       <c r="C429">
-        <v>38909</v>
+        <v>51490</v>
       </c>
       <c r="D429" t="s">
         <v>76</v>
@@ -6619,13 +6619,13 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B430" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C430">
-        <v>40005</v>
+        <v>71033</v>
       </c>
       <c r="D430" t="s">
         <v>76</v>
@@ -6633,13 +6633,13 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B431" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C431">
-        <v>41247</v>
+        <v>64047</v>
       </c>
       <c r="D431" t="s">
         <v>76</v>
@@ -6647,13 +6647,13 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B432" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C432">
-        <v>43165</v>
+        <v>79477</v>
       </c>
       <c r="D432" t="s">
         <v>76</v>
@@ -6661,13 +6661,13 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B433" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C433">
-        <v>44427</v>
+        <v>44064</v>
       </c>
       <c r="D433" t="s">
         <v>76</v>
@@ -6675,13 +6675,13 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B434" t="s">
         <v>66</v>
       </c>
       <c r="C434">
-        <v>43064</v>
+        <v>49993</v>
       </c>
       <c r="D434" t="s">
         <v>76</v>
@@ -6689,13 +6689,13 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B435" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C435">
-        <v>42915</v>
+        <v>70829</v>
       </c>
       <c r="D435" t="s">
         <v>76</v>
@@ -6703,13 +6703,13 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B436" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C436">
-        <v>43272</v>
+        <v>63967</v>
       </c>
       <c r="D436" t="s">
         <v>76</v>
@@ -6720,10 +6720,10 @@
         <v>22</v>
       </c>
       <c r="B437" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C437">
-        <v>43776</v>
+        <v>82250</v>
       </c>
       <c r="D437" t="s">
         <v>76</v>
@@ -6731,13 +6731,13 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B438" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C438">
-        <v>43836</v>
+        <v>43841</v>
       </c>
       <c r="D438" t="s">
         <v>76</v>
@@ -6745,13 +6745,13 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B439" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C439">
-        <v>101418</v>
+        <v>48726</v>
       </c>
       <c r="D439" t="s">
         <v>76</v>
@@ -6759,13 +6759,13 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B440" t="s">
         <v>67</v>
       </c>
       <c r="C440">
-        <v>99622</v>
+        <v>70552</v>
       </c>
       <c r="D440" t="s">
         <v>76</v>
@@ -6773,13 +6773,13 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B441" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C441">
-        <v>104041</v>
+        <v>63745</v>
       </c>
       <c r="D441" t="s">
         <v>76</v>
@@ -6787,13 +6787,13 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B442" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C442">
-        <v>94079</v>
+        <v>82681</v>
       </c>
       <c r="D442" t="s">
         <v>76</v>
@@ -6801,13 +6801,13 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B443" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C443">
-        <v>89960</v>
+        <v>43473</v>
       </c>
       <c r="D443" t="s">
         <v>76</v>
@@ -6815,13 +6815,13 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B444" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C444">
-        <v>89892</v>
+        <v>49276</v>
       </c>
       <c r="D444" t="s">
         <v>76</v>
@@ -6829,13 +6829,13 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B445" t="s">
         <v>67</v>
       </c>
       <c r="C445">
-        <v>91938</v>
+        <v>70325</v>
       </c>
       <c r="D445" t="s">
         <v>76</v>
@@ -6843,13 +6843,13 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B446" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C446">
-        <v>88247</v>
+        <v>64427</v>
       </c>
       <c r="D446" t="s">
         <v>76</v>
@@ -6857,13 +6857,13 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B447" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C447">
-        <v>85112</v>
+        <v>84965</v>
       </c>
       <c r="D447" t="s">
         <v>76</v>
@@ -6871,13 +6871,13 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B448" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C448">
-        <v>84324</v>
+        <v>43049</v>
       </c>
       <c r="D448" t="s">
         <v>76</v>
@@ -6885,13 +6885,13 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B449" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C449">
-        <v>78128</v>
+        <v>50020</v>
       </c>
       <c r="D449" t="s">
         <v>76</v>
@@ -6899,13 +6899,13 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B450" t="s">
         <v>67</v>
       </c>
       <c r="C450">
-        <v>81143</v>
+        <v>70627</v>
       </c>
       <c r="D450" t="s">
         <v>76</v>
@@ -6913,13 +6913,13 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B451" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C451">
-        <v>78628</v>
+        <v>64930</v>
       </c>
       <c r="D451" t="s">
         <v>76</v>
@@ -6927,13 +6927,13 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B452" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C452">
-        <v>80023</v>
+        <v>86533</v>
       </c>
       <c r="D452" t="s">
         <v>76</v>
@@ -6941,13 +6941,13 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B453" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C453">
-        <v>82875</v>
+        <v>43284</v>
       </c>
       <c r="D453" t="s">
         <v>76</v>
@@ -6955,13 +6955,13 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B454" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C454">
-        <v>82798</v>
+        <v>50893</v>
       </c>
       <c r="D454" t="s">
         <v>76</v>
@@ -6969,13 +6969,13 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B455" t="s">
         <v>67</v>
       </c>
       <c r="C455">
-        <v>86589</v>
+        <v>70617</v>
       </c>
       <c r="D455" t="s">
         <v>76</v>
@@ -6983,13 +6983,13 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B456" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C456">
-        <v>86533</v>
+        <v>65801</v>
       </c>
       <c r="D456" t="s">
         <v>76</v>
@@ -6997,13 +6997,13 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B457" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C457">
-        <v>84965</v>
+        <v>86589</v>
       </c>
       <c r="D457" t="s">
         <v>76</v>
@@ -7011,13 +7011,13 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B458" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C458">
-        <v>82681</v>
+        <v>44656</v>
       </c>
       <c r="D458" t="s">
         <v>76</v>
@@ -7025,13 +7025,13 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B459" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C459">
-        <v>82250</v>
+        <v>50666</v>
       </c>
       <c r="D459" t="s">
         <v>76</v>
@@ -7039,13 +7039,13 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B460" t="s">
         <v>67</v>
       </c>
       <c r="C460">
-        <v>79477</v>
+        <v>71941</v>
       </c>
       <c r="D460" t="s">
         <v>76</v>
@@ -7053,13 +7053,13 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B461" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C461">
-        <v>82277</v>
+        <v>63455</v>
       </c>
       <c r="D461" t="s">
         <v>76</v>
@@ -7067,13 +7067,13 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B462" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C462">
-        <v>87968</v>
+        <v>82798</v>
       </c>
       <c r="D462" t="s">
         <v>76</v>
@@ -7081,13 +7081,13 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B463" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C463">
-        <v>83128</v>
+        <v>43325</v>
       </c>
       <c r="D463" t="s">
         <v>76</v>
@@ -7095,13 +7095,13 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B464" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C464">
-        <v>77696</v>
+        <v>47826</v>
       </c>
       <c r="D464" t="s">
         <v>76</v>
@@ -7109,13 +7109,13 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B465" t="s">
         <v>67</v>
       </c>
       <c r="C465">
-        <v>76404</v>
+        <v>70049</v>
       </c>
       <c r="D465" t="s">
         <v>76</v>
@@ -7123,13 +7123,13 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B466" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C466">
-        <v>74653</v>
+        <v>63011</v>
       </c>
       <c r="D466" t="s">
         <v>76</v>
@@ -7137,13 +7137,13 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B467" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C467">
-        <v>71926</v>
+        <v>82875</v>
       </c>
       <c r="D467" t="s">
         <v>76</v>
@@ -7151,13 +7151,13 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B468" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C468">
-        <v>73420</v>
+        <v>41457</v>
       </c>
       <c r="D468" t="s">
         <v>76</v>
@@ -7165,13 +7165,13 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B469" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C469">
-        <v>71000</v>
+        <v>48152</v>
       </c>
       <c r="D469" t="s">
         <v>76</v>
@@ -7179,13 +7179,13 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B470" t="s">
         <v>67</v>
       </c>
       <c r="C470">
-        <v>71754</v>
+        <v>68940</v>
       </c>
       <c r="D470" t="s">
         <v>76</v>
@@ -7193,13 +7193,13 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B471" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C471">
-        <v>70908</v>
+        <v>61364</v>
       </c>
       <c r="D471" t="s">
         <v>76</v>
@@ -7207,13 +7207,13 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B472" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C472">
-        <v>77522</v>
+        <v>80023</v>
       </c>
       <c r="D472" t="s">
         <v>76</v>
@@ -7221,13 +7221,13 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B473" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C473">
-        <v>76377</v>
+        <v>40044</v>
       </c>
       <c r="D473" t="s">
         <v>76</v>
@@ -7235,13 +7235,13 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B474" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C474">
-        <v>71248</v>
+        <v>46863</v>
       </c>
       <c r="D474" t="s">
         <v>76</v>
@@ -7249,13 +7249,13 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B475" t="s">
         <v>67</v>
       </c>
       <c r="C475">
-        <v>73728</v>
+        <v>67820</v>
       </c>
       <c r="D475" t="s">
         <v>76</v>
@@ -7263,13 +7263,13 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B476" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C476">
-        <v>57981</v>
+        <v>60428</v>
       </c>
       <c r="D476" t="s">
         <v>76</v>
@@ -7277,13 +7277,13 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B477" t="s">
         <v>68</v>
       </c>
       <c r="C477">
-        <v>58015</v>
+        <v>78628</v>
       </c>
       <c r="D477" t="s">
         <v>76</v>
@@ -7291,13 +7291,13 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B478" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C478">
-        <v>59467</v>
+        <v>39074</v>
       </c>
       <c r="D478" t="s">
         <v>76</v>
@@ -7305,13 +7305,13 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B479" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C479">
-        <v>55513</v>
+        <v>46629</v>
       </c>
       <c r="D479" t="s">
         <v>76</v>
@@ -7319,13 +7319,13 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B480" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C480">
-        <v>55448</v>
+        <v>66897</v>
       </c>
       <c r="D480" t="s">
         <v>76</v>
@@ -7333,13 +7333,13 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B481" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C481">
-        <v>55800</v>
+        <v>60313</v>
       </c>
       <c r="D481" t="s">
         <v>76</v>
@@ -7347,13 +7347,13 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B482" t="s">
         <v>68</v>
       </c>
       <c r="C482">
-        <v>53827</v>
+        <v>81143</v>
       </c>
       <c r="D482" t="s">
         <v>76</v>
@@ -7361,13 +7361,13 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B483" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C483">
-        <v>51631</v>
+        <v>39862</v>
       </c>
       <c r="D483" t="s">
         <v>76</v>
@@ -7375,13 +7375,13 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B484" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C484">
-        <v>48676</v>
+        <v>46113</v>
       </c>
       <c r="D484" t="s">
         <v>76</v>
@@ -7389,13 +7389,13 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B485" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C485">
-        <v>46234</v>
+        <v>67397</v>
       </c>
       <c r="D485" t="s">
         <v>76</v>
@@ -7406,10 +7406,10 @@
         <v>12</v>
       </c>
       <c r="B486" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C486">
-        <v>47720</v>
+        <v>62425</v>
       </c>
       <c r="D486" t="s">
         <v>76</v>
@@ -7417,13 +7417,13 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B487" t="s">
         <v>68</v>
       </c>
       <c r="C487">
-        <v>46113</v>
+        <v>84324</v>
       </c>
       <c r="D487" t="s">
         <v>76</v>
@@ -7431,13 +7431,13 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B488" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C488">
-        <v>46629</v>
+        <v>41664</v>
       </c>
       <c r="D488" t="s">
         <v>76</v>
@@ -7445,13 +7445,13 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B489" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C489">
-        <v>46863</v>
+        <v>46234</v>
       </c>
       <c r="D489" t="s">
         <v>76</v>
@@ -7459,13 +7459,13 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B490" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C490">
-        <v>48152</v>
+        <v>70281</v>
       </c>
       <c r="D490" t="s">
         <v>76</v>
@@ -7473,13 +7473,13 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B491" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C491">
-        <v>47826</v>
+        <v>61468</v>
       </c>
       <c r="D491" t="s">
         <v>76</v>
@@ -7487,13 +7487,13 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B492" t="s">
         <v>68</v>
       </c>
       <c r="C492">
-        <v>50666</v>
+        <v>85112</v>
       </c>
       <c r="D492" t="s">
         <v>76</v>
@@ -7501,13 +7501,13 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B493" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C493">
-        <v>50893</v>
+        <v>40843</v>
       </c>
       <c r="D493" t="s">
         <v>76</v>
@@ -7515,13 +7515,13 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B494" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C494">
-        <v>50020</v>
+        <v>48676</v>
       </c>
       <c r="D494" t="s">
         <v>76</v>
@@ -7529,13 +7529,13 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B495" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C495">
-        <v>49276</v>
+        <v>69027</v>
       </c>
       <c r="D495" t="s">
         <v>76</v>
@@ -7543,13 +7543,13 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B496" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C496">
-        <v>48726</v>
+        <v>64631</v>
       </c>
       <c r="D496" t="s">
         <v>76</v>
@@ -7557,13 +7557,13 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B497" t="s">
         <v>68</v>
       </c>
       <c r="C497">
-        <v>49993</v>
+        <v>88247</v>
       </c>
       <c r="D497" t="s">
         <v>76</v>
@@ -7571,13 +7571,13 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B498" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C498">
-        <v>51490</v>
+        <v>42554</v>
       </c>
       <c r="D498" t="s">
         <v>76</v>
@@ -7585,13 +7585,13 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B499" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C499">
-        <v>52329</v>
+        <v>51631</v>
       </c>
       <c r="D499" t="s">
         <v>76</v>
@@ -7599,13 +7599,13 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B500" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C500">
-        <v>50154</v>
+        <v>71989</v>
       </c>
       <c r="D500" t="s">
         <v>76</v>
@@ -7613,13 +7613,13 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B501" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C501">
-        <v>47197</v>
+        <v>66657</v>
       </c>
       <c r="D501" t="s">
         <v>76</v>
@@ -7627,13 +7627,13 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B502" t="s">
         <v>68</v>
       </c>
       <c r="C502">
-        <v>44962</v>
+        <v>91938</v>
       </c>
       <c r="D502" t="s">
         <v>76</v>
@@ -7641,13 +7641,13 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B503" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C503">
-        <v>42964</v>
+        <v>45235</v>
       </c>
       <c r="D503" t="s">
         <v>76</v>
@@ -7655,13 +7655,13 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B504" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C504">
-        <v>40484</v>
+        <v>53827</v>
       </c>
       <c r="D504" t="s">
         <v>76</v>
@@ -7669,13 +7669,13 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B505" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C505">
-        <v>42477</v>
+        <v>73433</v>
       </c>
       <c r="D505" t="s">
         <v>76</v>
@@ -7683,13 +7683,13 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B506" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C506">
-        <v>42374</v>
+        <v>67571</v>
       </c>
       <c r="D506" t="s">
         <v>76</v>
@@ -7697,13 +7697,13 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B507" t="s">
         <v>68</v>
       </c>
       <c r="C507">
-        <v>42893</v>
+        <v>89960</v>
       </c>
       <c r="D507" t="s">
         <v>76</v>
@@ -7711,13 +7711,13 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B508" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C508">
-        <v>44143</v>
+        <v>44197</v>
       </c>
       <c r="D508" t="s">
         <v>76</v>
@@ -7725,13 +7725,13 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B509" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C509">
-        <v>45021</v>
+        <v>55448</v>
       </c>
       <c r="D509" t="s">
         <v>76</v>
@@ -7739,13 +7739,13 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B510" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C510">
-        <v>46376</v>
+        <v>75367</v>
       </c>
       <c r="D510" t="s">
         <v>76</v>
@@ -7753,13 +7753,13 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B511" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C511">
-        <v>44954</v>
+        <v>68168</v>
       </c>
       <c r="D511" t="s">
         <v>76</v>
@@ -7767,13 +7767,13 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B512" t="s">
         <v>68</v>
       </c>
       <c r="C512">
-        <v>44238</v>
+        <v>94079</v>
       </c>
       <c r="D512" t="s">
         <v>76</v>
@@ -7781,13 +7781,13 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B513" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C513">
-        <v>43431</v>
+        <v>44984</v>
       </c>
       <c r="D513" t="s">
         <v>76</v>
@@ -7795,13 +7795,13 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B514" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C514">
-        <v>42055</v>
+        <v>55513</v>
       </c>
       <c r="D514" t="s">
         <v>76</v>
@@ -7809,13 +7809,13 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B515" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C515">
-        <v>42321</v>
+        <v>76220</v>
       </c>
       <c r="D515" t="s">
         <v>76</v>
@@ -7823,13 +7823,13 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B516" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C516">
-        <v>41265</v>
+        <v>72808</v>
       </c>
       <c r="D516" t="s">
         <v>76</v>
@@ -7837,13 +7837,13 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B517" t="s">
         <v>68</v>
       </c>
       <c r="C517">
-        <v>41058</v>
+        <v>104041</v>
       </c>
       <c r="D517" t="s">
         <v>76</v>
@@ -7851,13 +7851,13 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B518" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C518">
-        <v>43887</v>
+        <v>48827</v>
       </c>
       <c r="D518" t="s">
         <v>76</v>
@@ -7865,13 +7865,13 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B519" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C519">
-        <v>42854</v>
+        <v>59467</v>
       </c>
       <c r="D519" t="s">
         <v>76</v>
@@ -7879,13 +7879,13 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B520" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C520">
-        <v>45527</v>
+        <v>80602</v>
       </c>
       <c r="D520" t="s">
         <v>76</v>
@@ -7893,13 +7893,13 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B521" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C521">
-        <v>45109</v>
+        <v>71186</v>
       </c>
       <c r="D521" t="s">
         <v>76</v>
@@ -7907,13 +7907,13 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B522" t="s">
         <v>68</v>
       </c>
       <c r="C522">
-        <v>43482</v>
+        <v>99622</v>
       </c>
       <c r="D522" t="s">
         <v>76</v>
@@ -7921,13 +7921,13 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B523" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C523">
-        <v>41545</v>
+        <v>48936</v>
       </c>
       <c r="D523" t="s">
         <v>76</v>
@@ -7935,13 +7935,13 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B524" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C524">
-        <v>40704</v>
+        <v>58015</v>
       </c>
       <c r="D524" t="s">
         <v>76</v>
@@ -7949,13 +7949,13 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B525" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C525">
-        <v>44253</v>
+        <v>78912</v>
       </c>
       <c r="D525" t="s">
         <v>76</v>
@@ -7963,13 +7963,13 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B526" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C526">
-        <v>44513</v>
+        <v>70784</v>
       </c>
       <c r="D526" t="s">
         <v>76</v>
@@ -7977,13 +7977,13 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B527" t="s">
         <v>68</v>
       </c>
       <c r="C527">
-        <v>44587</v>
+        <v>101418</v>
       </c>
       <c r="D527" t="s">
         <v>76</v>
@@ -7994,52 +7994,52 @@
         <v>4</v>
       </c>
       <c r="B528" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C528">
-        <v>70784</v>
+        <v>48815</v>
       </c>
       <c r="D528" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B529" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C529">
-        <v>71186</v>
+        <v>57981</v>
       </c>
       <c r="D529" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B530" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C530">
-        <v>72808</v>
+        <v>77999</v>
       </c>
       <c r="D530" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B531" t="s">
         <v>69</v>
       </c>
       <c r="C531">
-        <v>68168</v>
+        <v>70784</v>
       </c>
       <c r="D531" t="s">
         <v>77</v>
@@ -8047,13 +8047,13 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B532" t="s">
         <v>69</v>
       </c>
       <c r="C532">
-        <v>67571</v>
+        <v>71186</v>
       </c>
       <c r="D532" t="s">
         <v>77</v>
@@ -8061,13 +8061,13 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B533" t="s">
         <v>69</v>
       </c>
       <c r="C533">
-        <v>67832</v>
+        <v>72808</v>
       </c>
       <c r="D533" t="s">
         <v>77</v>
@@ -8075,13 +8075,13 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B534" t="s">
         <v>69</v>
       </c>
       <c r="C534">
-        <v>66657</v>
+        <v>68168</v>
       </c>
       <c r="D534" t="s">
         <v>77</v>
@@ -8089,13 +8089,13 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B535" t="s">
         <v>69</v>
       </c>
       <c r="C535">
-        <v>64631</v>
+        <v>67571</v>
       </c>
       <c r="D535" t="s">
         <v>77</v>
@@ -8103,13 +8103,13 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B536" t="s">
         <v>69</v>
       </c>
       <c r="C536">
-        <v>61468</v>
+        <v>67832</v>
       </c>
       <c r="D536" t="s">
         <v>77</v>
@@ -8117,13 +8117,13 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B537" t="s">
         <v>69</v>
       </c>
       <c r="C537">
-        <v>62425</v>
+        <v>66657</v>
       </c>
       <c r="D537" t="s">
         <v>77</v>
@@ -8131,13 +8131,13 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B538" t="s">
         <v>69</v>
       </c>
       <c r="C538">
-        <v>60507</v>
+        <v>64631</v>
       </c>
       <c r="D538" t="s">
         <v>77</v>
@@ -8145,13 +8145,13 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B539" t="s">
         <v>69</v>
       </c>
       <c r="C539">
-        <v>60313</v>
+        <v>61468</v>
       </c>
       <c r="D539" t="s">
         <v>77</v>
@@ -8159,13 +8159,13 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B540" t="s">
         <v>69</v>
       </c>
       <c r="C540">
-        <v>60428</v>
+        <v>62425</v>
       </c>
       <c r="D540" t="s">
         <v>77</v>
@@ -8173,13 +8173,13 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B541" t="s">
         <v>69</v>
       </c>
       <c r="C541">
-        <v>61364</v>
+        <v>60507</v>
       </c>
       <c r="D541" t="s">
         <v>77</v>
@@ -8187,13 +8187,13 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B542" t="s">
         <v>69</v>
       </c>
       <c r="C542">
-        <v>63011</v>
+        <v>60313</v>
       </c>
       <c r="D542" t="s">
         <v>77</v>
@@ -8201,13 +8201,13 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B543" t="s">
         <v>69</v>
       </c>
       <c r="C543">
-        <v>63455</v>
+        <v>60428</v>
       </c>
       <c r="D543" t="s">
         <v>77</v>
@@ -8215,13 +8215,13 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B544" t="s">
         <v>69</v>
       </c>
       <c r="C544">
-        <v>65801</v>
+        <v>61364</v>
       </c>
       <c r="D544" t="s">
         <v>77</v>
@@ -8229,13 +8229,13 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B545" t="s">
         <v>69</v>
       </c>
       <c r="C545">
-        <v>64930</v>
+        <v>63011</v>
       </c>
       <c r="D545" t="s">
         <v>77</v>
@@ -8243,13 +8243,13 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B546" t="s">
         <v>69</v>
       </c>
       <c r="C546">
-        <v>64427</v>
+        <v>63455</v>
       </c>
       <c r="D546" t="s">
         <v>77</v>
@@ -8257,13 +8257,13 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B547" t="s">
         <v>69</v>
       </c>
       <c r="C547">
-        <v>63745</v>
+        <v>65801</v>
       </c>
       <c r="D547" t="s">
         <v>77</v>
@@ -8271,13 +8271,13 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B548" t="s">
         <v>69</v>
       </c>
       <c r="C548">
-        <v>63967</v>
+        <v>64930</v>
       </c>
       <c r="D548" t="s">
         <v>77</v>
@@ -8285,13 +8285,13 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B549" t="s">
         <v>69</v>
       </c>
       <c r="C549">
-        <v>64047</v>
+        <v>64427</v>
       </c>
       <c r="D549" t="s">
         <v>77</v>
@@ -8299,13 +8299,13 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B550" t="s">
         <v>69</v>
       </c>
       <c r="C550">
-        <v>64779</v>
+        <v>63745</v>
       </c>
       <c r="D550" t="s">
         <v>77</v>
@@ -8313,13 +8313,13 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B551" t="s">
         <v>69</v>
       </c>
       <c r="C551">
-        <v>66248</v>
+        <v>63967</v>
       </c>
       <c r="D551" t="s">
         <v>77</v>
@@ -8327,13 +8327,13 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B552" t="s">
         <v>69</v>
       </c>
       <c r="C552">
-        <v>66385</v>
+        <v>64047</v>
       </c>
       <c r="D552" t="s">
         <v>77</v>
@@ -8341,13 +8341,13 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B553" t="s">
         <v>69</v>
       </c>
       <c r="C553">
-        <v>64781</v>
+        <v>64779</v>
       </c>
       <c r="D553" t="s">
         <v>77</v>
@@ -8355,13 +8355,13 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B554" t="s">
         <v>69</v>
       </c>
       <c r="C554">
-        <v>62484</v>
+        <v>66248</v>
       </c>
       <c r="D554" t="s">
         <v>77</v>
@@ -8369,13 +8369,13 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B555" t="s">
         <v>69</v>
       </c>
       <c r="C555">
-        <v>61225</v>
+        <v>66385</v>
       </c>
       <c r="D555" t="s">
         <v>77</v>
@@ -8383,13 +8383,13 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B556" t="s">
         <v>69</v>
       </c>
       <c r="C556">
-        <v>60348</v>
+        <v>64781</v>
       </c>
       <c r="D556" t="s">
         <v>77</v>
@@ -8397,13 +8397,13 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B557" t="s">
         <v>69</v>
       </c>
       <c r="C557">
-        <v>58515</v>
+        <v>62484</v>
       </c>
       <c r="D557" t="s">
         <v>77</v>
@@ -8411,13 +8411,13 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B558" t="s">
         <v>69</v>
       </c>
       <c r="C558">
-        <v>57843</v>
+        <v>61225</v>
       </c>
       <c r="D558" t="s">
         <v>77</v>
@@ -8425,13 +8425,13 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B559" t="s">
         <v>69</v>
       </c>
       <c r="C559">
-        <v>58153</v>
+        <v>60348</v>
       </c>
       <c r="D559" t="s">
         <v>77</v>
@@ -8439,13 +8439,13 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B560" t="s">
         <v>69</v>
       </c>
       <c r="C560">
-        <v>58607</v>
+        <v>58515</v>
       </c>
       <c r="D560" t="s">
         <v>77</v>
@@ -8453,13 +8453,13 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B561" t="s">
         <v>69</v>
       </c>
       <c r="C561">
-        <v>60370</v>
+        <v>57843</v>
       </c>
       <c r="D561" t="s">
         <v>77</v>
@@ -8467,13 +8467,13 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B562" t="s">
         <v>69</v>
       </c>
       <c r="C562">
-        <v>61153</v>
+        <v>58153</v>
       </c>
       <c r="D562" t="s">
         <v>77</v>
@@ -8481,13 +8481,13 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B563" t="s">
         <v>69</v>
       </c>
       <c r="C563">
-        <v>60115</v>
+        <v>58607</v>
       </c>
       <c r="D563" t="s">
         <v>77</v>
@@ -8495,13 +8495,13 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B564" t="s">
         <v>69</v>
       </c>
       <c r="C564">
-        <v>59624</v>
+        <v>60370</v>
       </c>
       <c r="D564" t="s">
         <v>77</v>
@@ -8509,13 +8509,13 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B565" t="s">
         <v>69</v>
       </c>
       <c r="C565">
-        <v>58920</v>
+        <v>61153</v>
       </c>
       <c r="D565" t="s">
         <v>77</v>
@@ -8523,13 +8523,13 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B566" t="s">
         <v>69</v>
       </c>
       <c r="C566">
-        <v>56871</v>
+        <v>60115</v>
       </c>
       <c r="D566" t="s">
         <v>77</v>
@@ -8537,13 +8537,13 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B567" t="s">
         <v>69</v>
       </c>
       <c r="C567">
-        <v>55828</v>
+        <v>59624</v>
       </c>
       <c r="D567" t="s">
         <v>77</v>
@@ -8551,13 +8551,13 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B568" t="s">
         <v>69</v>
       </c>
       <c r="C568">
-        <v>54182</v>
+        <v>58920</v>
       </c>
       <c r="D568" t="s">
         <v>77</v>
@@ -8565,13 +8565,13 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B569" t="s">
         <v>69</v>
       </c>
       <c r="C569">
-        <v>54564</v>
+        <v>56871</v>
       </c>
       <c r="D569" t="s">
         <v>77</v>
@@ -8579,13 +8579,13 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B570" t="s">
         <v>69</v>
       </c>
       <c r="C570">
-        <v>54713</v>
+        <v>55828</v>
       </c>
       <c r="D570" t="s">
         <v>77</v>
@@ -8593,13 +8593,13 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B571" t="s">
         <v>69</v>
       </c>
       <c r="C571">
-        <v>55596</v>
+        <v>54182</v>
       </c>
       <c r="D571" t="s">
         <v>77</v>
@@ -8607,13 +8607,13 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B572" t="s">
         <v>69</v>
       </c>
       <c r="C572">
-        <v>57462</v>
+        <v>54564</v>
       </c>
       <c r="D572" t="s">
         <v>77</v>
@@ -8621,13 +8621,13 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B573" t="s">
         <v>69</v>
       </c>
       <c r="C573">
-        <v>57572</v>
+        <v>54713</v>
       </c>
       <c r="D573" t="s">
         <v>77</v>
@@ -8635,13 +8635,13 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B574" t="s">
         <v>69</v>
       </c>
       <c r="C574">
-        <v>55427</v>
+        <v>55596</v>
       </c>
       <c r="D574" t="s">
         <v>77</v>
@@ -8649,13 +8649,13 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B575" t="s">
         <v>69</v>
       </c>
       <c r="C575">
-        <v>55078</v>
+        <v>57462</v>
       </c>
       <c r="D575" t="s">
         <v>77</v>
@@ -8663,13 +8663,13 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B576" t="s">
         <v>69</v>
       </c>
       <c r="C576">
-        <v>54180</v>
+        <v>57572</v>
       </c>
       <c r="D576" t="s">
         <v>77</v>
@@ -8677,13 +8677,13 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B577" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C577">
-        <v>77472</v>
+        <v>55427</v>
       </c>
       <c r="D577" t="s">
         <v>77</v>
@@ -8691,13 +8691,13 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B578" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C578">
-        <v>79032</v>
+        <v>55078</v>
       </c>
       <c r="D578" t="s">
         <v>77</v>
@@ -8705,13 +8705,13 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B579" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C579">
-        <v>80776</v>
+        <v>54180</v>
       </c>
       <c r="D579" t="s">
         <v>77</v>
@@ -8719,13 +8719,13 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B580" t="s">
         <v>70</v>
       </c>
       <c r="C580">
-        <v>75649</v>
+        <v>77472</v>
       </c>
       <c r="D580" t="s">
         <v>77</v>
@@ -8733,13 +8733,13 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B581" t="s">
         <v>70</v>
       </c>
       <c r="C581">
-        <v>72498</v>
+        <v>79032</v>
       </c>
       <c r="D581" t="s">
         <v>77</v>
@@ -8747,13 +8747,13 @@
     </row>
     <row r="582" spans="1:4">
       <c r="A582" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B582" t="s">
         <v>70</v>
       </c>
       <c r="C582">
-        <v>73445</v>
+        <v>80776</v>
       </c>
       <c r="D582" t="s">
         <v>77</v>
@@ -8761,13 +8761,13 @@
     </row>
     <row r="583" spans="1:4">
       <c r="A583" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B583" t="s">
         <v>70</v>
       </c>
       <c r="C583">
-        <v>72698</v>
+        <v>75649</v>
       </c>
       <c r="D583" t="s">
         <v>77</v>
@@ -8775,13 +8775,13 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B584" t="s">
         <v>70</v>
       </c>
       <c r="C584">
-        <v>71111</v>
+        <v>72498</v>
       </c>
       <c r="D584" t="s">
         <v>77</v>
@@ -8789,13 +8789,13 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B585" t="s">
         <v>70</v>
       </c>
       <c r="C585">
-        <v>67829</v>
+        <v>73445</v>
       </c>
       <c r="D585" t="s">
         <v>77</v>
@@ -8803,13 +8803,13 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B586" t="s">
         <v>70</v>
       </c>
       <c r="C586">
-        <v>66249</v>
+        <v>72698</v>
       </c>
       <c r="D586" t="s">
         <v>77</v>
@@ -8817,13 +8817,13 @@
     </row>
     <row r="587" spans="1:4">
       <c r="A587" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B587" t="s">
         <v>70</v>
       </c>
       <c r="C587">
-        <v>66141</v>
+        <v>71111</v>
       </c>
       <c r="D587" t="s">
         <v>77</v>
@@ -8831,13 +8831,13 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B588" t="s">
         <v>70</v>
       </c>
       <c r="C588">
-        <v>64581</v>
+        <v>67829</v>
       </c>
       <c r="D588" t="s">
         <v>77</v>
@@ -8845,13 +8845,13 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B589" t="s">
         <v>70</v>
       </c>
       <c r="C589">
-        <v>65028</v>
+        <v>66249</v>
       </c>
       <c r="D589" t="s">
         <v>77</v>
@@ -8859,13 +8859,13 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B590" t="s">
         <v>70</v>
       </c>
       <c r="C590">
-        <v>65997</v>
+        <v>66141</v>
       </c>
       <c r="D590" t="s">
         <v>77</v>
@@ -8873,13 +8873,13 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B591" t="s">
         <v>70</v>
       </c>
       <c r="C591">
-        <v>67183</v>
+        <v>64581</v>
       </c>
       <c r="D591" t="s">
         <v>77</v>
@@ -8887,13 +8887,13 @@
     </row>
     <row r="592" spans="1:4">
       <c r="A592" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B592" t="s">
         <v>70</v>
       </c>
       <c r="C592">
-        <v>68555</v>
+        <v>65028</v>
       </c>
       <c r="D592" t="s">
         <v>77</v>
@@ -8901,13 +8901,13 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B593" t="s">
         <v>70</v>
       </c>
       <c r="C593">
-        <v>68474</v>
+        <v>65997</v>
       </c>
       <c r="D593" t="s">
         <v>77</v>
@@ -8915,13 +8915,13 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B594" t="s">
         <v>70</v>
       </c>
       <c r="C594">
-        <v>70124</v>
+        <v>67183</v>
       </c>
       <c r="D594" t="s">
         <v>77</v>
@@ -8929,13 +8929,13 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B595" t="s">
         <v>70</v>
       </c>
       <c r="C595">
-        <v>70763</v>
+        <v>68555</v>
       </c>
       <c r="D595" t="s">
         <v>77</v>
@@ -8943,13 +8943,13 @@
     </row>
     <row r="596" spans="1:4">
       <c r="A596" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B596" t="s">
         <v>70</v>
       </c>
       <c r="C596">
-        <v>68816</v>
+        <v>68474</v>
       </c>
       <c r="D596" t="s">
         <v>77</v>
@@ -8957,13 +8957,13 @@
     </row>
     <row r="597" spans="1:4">
       <c r="A597" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B597" t="s">
         <v>70</v>
       </c>
       <c r="C597">
-        <v>69023</v>
+        <v>70124</v>
       </c>
       <c r="D597" t="s">
         <v>77</v>
@@ -8971,13 +8971,13 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B598" t="s">
         <v>70</v>
       </c>
       <c r="C598">
-        <v>69262</v>
+        <v>70763</v>
       </c>
       <c r="D598" t="s">
         <v>77</v>
@@ -8985,13 +8985,13 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B599" t="s">
         <v>70</v>
       </c>
       <c r="C599">
-        <v>70130</v>
+        <v>68816</v>
       </c>
       <c r="D599" t="s">
         <v>77</v>
@@ -8999,13 +8999,13 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B600" t="s">
         <v>70</v>
       </c>
       <c r="C600">
-        <v>69024</v>
+        <v>69023</v>
       </c>
       <c r="D600" t="s">
         <v>77</v>
@@ -9013,13 +9013,13 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B601" t="s">
         <v>70</v>
       </c>
       <c r="C601">
-        <v>68319</v>
+        <v>69262</v>
       </c>
       <c r="D601" t="s">
         <v>77</v>
@@ -9027,13 +9027,13 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B602" t="s">
         <v>70</v>
       </c>
       <c r="C602">
-        <v>67695</v>
+        <v>70130</v>
       </c>
       <c r="D602" t="s">
         <v>77</v>
@@ -9041,13 +9041,13 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B603" t="s">
         <v>70</v>
       </c>
       <c r="C603">
-        <v>65733</v>
+        <v>69024</v>
       </c>
       <c r="D603" t="s">
         <v>77</v>
@@ -9055,13 +9055,13 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B604" t="s">
         <v>70</v>
       </c>
       <c r="C604">
-        <v>64527</v>
+        <v>68319</v>
       </c>
       <c r="D604" t="s">
         <v>77</v>
@@ -9069,13 +9069,13 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B605" t="s">
         <v>70</v>
       </c>
       <c r="C605">
-        <v>63952</v>
+        <v>67695</v>
       </c>
       <c r="D605" t="s">
         <v>77</v>
@@ -9083,13 +9083,13 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B606" t="s">
         <v>70</v>
       </c>
       <c r="C606">
-        <v>63343</v>
+        <v>65733</v>
       </c>
       <c r="D606" t="s">
         <v>77</v>
@@ -9097,13 +9097,13 @@
     </row>
     <row r="607" spans="1:4">
       <c r="A607" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B607" t="s">
         <v>70</v>
       </c>
       <c r="C607">
-        <v>62483</v>
+        <v>64527</v>
       </c>
       <c r="D607" t="s">
         <v>77</v>
@@ -9111,13 +9111,13 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B608" t="s">
         <v>70</v>
       </c>
       <c r="C608">
-        <v>62638</v>
+        <v>63952</v>
       </c>
       <c r="D608" t="s">
         <v>77</v>
@@ -9125,13 +9125,13 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B609" t="s">
         <v>70</v>
       </c>
       <c r="C609">
-        <v>65106</v>
+        <v>63343</v>
       </c>
       <c r="D609" t="s">
         <v>77</v>
@@ -9139,13 +9139,13 @@
     </row>
     <row r="610" spans="1:4">
       <c r="A610" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B610" t="s">
         <v>70</v>
       </c>
       <c r="C610">
-        <v>65880</v>
+        <v>62483</v>
       </c>
       <c r="D610" t="s">
         <v>77</v>
@@ -9153,13 +9153,13 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B611" t="s">
         <v>70</v>
       </c>
       <c r="C611">
-        <v>69059</v>
+        <v>62638</v>
       </c>
       <c r="D611" t="s">
         <v>77</v>
@@ -9167,13 +9167,13 @@
     </row>
     <row r="612" spans="1:4">
       <c r="A612" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B612" t="s">
         <v>70</v>
       </c>
       <c r="C612">
-        <v>67181</v>
+        <v>65106</v>
       </c>
       <c r="D612" t="s">
         <v>77</v>
@@ -9181,13 +9181,13 @@
     </row>
     <row r="613" spans="1:4">
       <c r="A613" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B613" t="s">
         <v>70</v>
       </c>
       <c r="C613">
-        <v>64435</v>
+        <v>65880</v>
       </c>
       <c r="D613" t="s">
         <v>77</v>
@@ -9195,13 +9195,13 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B614" t="s">
         <v>70</v>
       </c>
       <c r="C614">
-        <v>62699</v>
+        <v>69059</v>
       </c>
       <c r="D614" t="s">
         <v>77</v>
@@ -9209,13 +9209,13 @@
     </row>
     <row r="615" spans="1:4">
       <c r="A615" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B615" t="s">
         <v>70</v>
       </c>
       <c r="C615">
-        <v>61367</v>
+        <v>67181</v>
       </c>
       <c r="D615" t="s">
         <v>77</v>
@@ -9223,13 +9223,13 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B616" t="s">
         <v>70</v>
       </c>
       <c r="C616">
-        <v>58654</v>
+        <v>64435</v>
       </c>
       <c r="D616" t="s">
         <v>77</v>
@@ -9237,13 +9237,13 @@
     </row>
     <row r="617" spans="1:4">
       <c r="A617" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B617" t="s">
         <v>70</v>
       </c>
       <c r="C617">
-        <v>56602</v>
+        <v>62699</v>
       </c>
       <c r="D617" t="s">
         <v>77</v>
@@ -9251,13 +9251,13 @@
     </row>
     <row r="618" spans="1:4">
       <c r="A618" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B618" t="s">
         <v>70</v>
       </c>
       <c r="C618">
-        <v>56014</v>
+        <v>61367</v>
       </c>
       <c r="D618" t="s">
         <v>77</v>
@@ -9265,13 +9265,13 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B619" t="s">
         <v>70</v>
       </c>
       <c r="C619">
-        <v>56867</v>
+        <v>58654</v>
       </c>
       <c r="D619" t="s">
         <v>77</v>
@@ -9279,13 +9279,13 @@
     </row>
     <row r="620" spans="1:4">
       <c r="A620" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B620" t="s">
         <v>70</v>
       </c>
       <c r="C620">
-        <v>57109</v>
+        <v>56602</v>
       </c>
       <c r="D620" t="s">
         <v>77</v>
@@ -9293,13 +9293,13 @@
     </row>
     <row r="621" spans="1:4">
       <c r="A621" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B621" t="s">
         <v>70</v>
       </c>
       <c r="C621">
-        <v>58869</v>
+        <v>56014</v>
       </c>
       <c r="D621" t="s">
         <v>77</v>
@@ -9307,13 +9307,13 @@
     </row>
     <row r="622" spans="1:4">
       <c r="A622" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B622" t="s">
         <v>70</v>
       </c>
       <c r="C622">
-        <v>59273</v>
+        <v>56867</v>
       </c>
       <c r="D622" t="s">
         <v>77</v>
@@ -9321,13 +9321,13 @@
     </row>
     <row r="623" spans="1:4">
       <c r="A623" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B623" t="s">
         <v>70</v>
       </c>
       <c r="C623">
-        <v>58122</v>
+        <v>57109</v>
       </c>
       <c r="D623" t="s">
         <v>77</v>
@@ -9335,13 +9335,13 @@
     </row>
     <row r="624" spans="1:4">
       <c r="A624" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B624" t="s">
         <v>70</v>
       </c>
       <c r="C624">
-        <v>56763</v>
+        <v>58869</v>
       </c>
       <c r="D624" t="s">
         <v>77</v>
@@ -9349,13 +9349,13 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B625" t="s">
         <v>70</v>
       </c>
       <c r="C625">
-        <v>56654</v>
+        <v>59273</v>
       </c>
       <c r="D625" t="s">
         <v>77</v>
@@ -9363,13 +9363,13 @@
     </row>
     <row r="626" spans="1:4">
       <c r="A626" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B626" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C626">
-        <v>71129</v>
+        <v>58122</v>
       </c>
       <c r="D626" t="s">
         <v>77</v>
@@ -9377,13 +9377,13 @@
     </row>
     <row r="627" spans="1:4">
       <c r="A627" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B627" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C627">
-        <v>70528</v>
+        <v>56763</v>
       </c>
       <c r="D627" t="s">
         <v>77</v>
@@ -9391,13 +9391,13 @@
     </row>
     <row r="628" spans="1:4">
       <c r="A628" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B628" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C628">
-        <v>72439</v>
+        <v>56654</v>
       </c>
       <c r="D628" t="s">
         <v>77</v>
@@ -9405,13 +9405,13 @@
     </row>
     <row r="629" spans="1:4">
       <c r="A629" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B629" t="s">
         <v>71</v>
       </c>
       <c r="C629">
-        <v>69128</v>
+        <v>71129</v>
       </c>
       <c r="D629" t="s">
         <v>77</v>
@@ -9419,13 +9419,13 @@
     </row>
     <row r="630" spans="1:4">
       <c r="A630" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B630" t="s">
         <v>71</v>
       </c>
       <c r="C630">
-        <v>67557</v>
+        <v>70528</v>
       </c>
       <c r="D630" t="s">
         <v>77</v>
@@ -9433,13 +9433,13 @@
     </row>
     <row r="631" spans="1:4">
       <c r="A631" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B631" t="s">
         <v>71</v>
       </c>
       <c r="C631">
-        <v>67571</v>
+        <v>72439</v>
       </c>
       <c r="D631" t="s">
         <v>77</v>
@@ -9447,13 +9447,13 @@
     </row>
     <row r="632" spans="1:4">
       <c r="A632" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B632" t="s">
         <v>71</v>
       </c>
       <c r="C632">
-        <v>65828</v>
+        <v>69128</v>
       </c>
       <c r="D632" t="s">
         <v>77</v>
@@ -9461,13 +9461,13 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B633" t="s">
         <v>71</v>
       </c>
       <c r="C633">
-        <v>65279</v>
+        <v>67557</v>
       </c>
       <c r="D633" t="s">
         <v>77</v>
@@ -9475,13 +9475,13 @@
     </row>
     <row r="634" spans="1:4">
       <c r="A634" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B634" t="s">
         <v>71</v>
       </c>
       <c r="C634">
-        <v>62166</v>
+        <v>67571</v>
       </c>
       <c r="D634" t="s">
         <v>77</v>
@@ -9489,13 +9489,13 @@
     </row>
     <row r="635" spans="1:4">
       <c r="A635" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B635" t="s">
         <v>71</v>
       </c>
       <c r="C635">
-        <v>62239</v>
+        <v>65828</v>
       </c>
       <c r="D635" t="s">
         <v>77</v>
@@ -9503,13 +9503,13 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B636" t="s">
         <v>71</v>
       </c>
       <c r="C636">
-        <v>60674</v>
+        <v>65279</v>
       </c>
       <c r="D636" t="s">
         <v>77</v>
@@ -9517,13 +9517,13 @@
     </row>
     <row r="637" spans="1:4">
       <c r="A637" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B637" t="s">
         <v>71</v>
       </c>
       <c r="C637">
-        <v>59677</v>
+        <v>62166</v>
       </c>
       <c r="D637" t="s">
         <v>77</v>
@@ -9531,13 +9531,13 @@
     </row>
     <row r="638" spans="1:4">
       <c r="A638" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B638" t="s">
         <v>71</v>
       </c>
       <c r="C638">
-        <v>58820</v>
+        <v>62239</v>
       </c>
       <c r="D638" t="s">
         <v>77</v>
@@ -9545,13 +9545,13 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B639" t="s">
         <v>71</v>
       </c>
       <c r="C639">
-        <v>60075</v>
+        <v>60674</v>
       </c>
       <c r="D639" t="s">
         <v>77</v>
@@ -9559,13 +9559,13 @@
     </row>
     <row r="640" spans="1:4">
       <c r="A640" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B640" t="s">
         <v>71</v>
       </c>
       <c r="C640">
-        <v>61872</v>
+        <v>59677</v>
       </c>
       <c r="D640" t="s">
         <v>77</v>
@@ -9573,13 +9573,13 @@
     </row>
     <row r="641" spans="1:4">
       <c r="A641" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B641" t="s">
         <v>71</v>
       </c>
       <c r="C641">
-        <v>63214</v>
+        <v>58820</v>
       </c>
       <c r="D641" t="s">
         <v>77</v>
@@ -9587,13 +9587,13 @@
     </row>
     <row r="642" spans="1:4">
       <c r="A642" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B642" t="s">
         <v>71</v>
       </c>
       <c r="C642">
-        <v>65859</v>
+        <v>60075</v>
       </c>
       <c r="D642" t="s">
         <v>77</v>
@@ -9601,13 +9601,13 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B643" t="s">
         <v>71</v>
       </c>
       <c r="C643">
-        <v>64438</v>
+        <v>61872</v>
       </c>
       <c r="D643" t="s">
         <v>77</v>
@@ -9615,13 +9615,13 @@
     </row>
     <row r="644" spans="1:4">
       <c r="A644" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B644" t="s">
         <v>71</v>
       </c>
       <c r="C644">
-        <v>63904</v>
+        <v>63214</v>
       </c>
       <c r="D644" t="s">
         <v>77</v>
@@ -9629,13 +9629,13 @@
     </row>
     <row r="645" spans="1:4">
       <c r="A645" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B645" t="s">
         <v>71</v>
       </c>
       <c r="C645">
-        <v>64187</v>
+        <v>65859</v>
       </c>
       <c r="D645" t="s">
         <v>77</v>
@@ -9643,13 +9643,13 @@
     </row>
     <row r="646" spans="1:4">
       <c r="A646" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B646" t="s">
         <v>71</v>
       </c>
       <c r="C646">
-        <v>66055</v>
+        <v>64438</v>
       </c>
       <c r="D646" t="s">
         <v>77</v>
@@ -9657,13 +9657,13 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B647" t="s">
         <v>71</v>
       </c>
       <c r="C647">
-        <v>65879</v>
+        <v>63904</v>
       </c>
       <c r="D647" t="s">
         <v>77</v>
@@ -9671,13 +9671,13 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B648" t="s">
         <v>71</v>
       </c>
       <c r="C648">
-        <v>67242</v>
+        <v>64187</v>
       </c>
       <c r="D648" t="s">
         <v>77</v>
@@ -9685,13 +9685,13 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B649" t="s">
         <v>71</v>
       </c>
       <c r="C649">
-        <v>69831</v>
+        <v>66055</v>
       </c>
       <c r="D649" t="s">
         <v>77</v>
@@ -9699,13 +9699,13 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B650" t="s">
         <v>71</v>
       </c>
       <c r="C650">
-        <v>69347</v>
+        <v>65879</v>
       </c>
       <c r="D650" t="s">
         <v>77</v>
@@ -9713,13 +9713,13 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B651" t="s">
         <v>71</v>
       </c>
       <c r="C651">
-        <v>67653</v>
+        <v>67242</v>
       </c>
       <c r="D651" t="s">
         <v>77</v>
@@ -9727,13 +9727,13 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B652" t="s">
         <v>71</v>
       </c>
       <c r="C652">
-        <v>64698</v>
+        <v>69831</v>
       </c>
       <c r="D652" t="s">
         <v>77</v>
@@ -9741,13 +9741,13 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B653" t="s">
         <v>71</v>
       </c>
       <c r="C653">
-        <v>63100</v>
+        <v>69347</v>
       </c>
       <c r="D653" t="s">
         <v>77</v>
@@ -9755,13 +9755,13 @@
     </row>
     <row r="654" spans="1:4">
       <c r="A654" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B654" t="s">
         <v>71</v>
       </c>
       <c r="C654">
-        <v>63470</v>
+        <v>67653</v>
       </c>
       <c r="D654" t="s">
         <v>77</v>
@@ -9769,13 +9769,13 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B655" t="s">
         <v>71</v>
       </c>
       <c r="C655">
-        <v>58952</v>
+        <v>64698</v>
       </c>
       <c r="D655" t="s">
         <v>77</v>
@@ -9783,13 +9783,13 @@
     </row>
     <row r="656" spans="1:4">
       <c r="A656" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B656" t="s">
         <v>71</v>
       </c>
       <c r="C656">
-        <v>58137</v>
+        <v>63100</v>
       </c>
       <c r="D656" t="s">
         <v>77</v>
@@ -9797,13 +9797,13 @@
     </row>
     <row r="657" spans="1:4">
       <c r="A657" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B657" t="s">
         <v>71</v>
       </c>
       <c r="C657">
-        <v>58472</v>
+        <v>63470</v>
       </c>
       <c r="D657" t="s">
         <v>77</v>
@@ -9811,13 +9811,13 @@
     </row>
     <row r="658" spans="1:4">
       <c r="A658" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B658" t="s">
         <v>71</v>
       </c>
       <c r="C658">
-        <v>58220</v>
+        <v>58952</v>
       </c>
       <c r="D658" t="s">
         <v>77</v>
@@ -9825,13 +9825,13 @@
     </row>
     <row r="659" spans="1:4">
       <c r="A659" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B659" t="s">
         <v>71</v>
       </c>
       <c r="C659">
-        <v>60277</v>
+        <v>58137</v>
       </c>
       <c r="D659" t="s">
         <v>77</v>
@@ -9839,13 +9839,13 @@
     </row>
     <row r="660" spans="1:4">
       <c r="A660" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B660" t="s">
         <v>71</v>
       </c>
       <c r="C660">
-        <v>60823</v>
+        <v>58472</v>
       </c>
       <c r="D660" t="s">
         <v>77</v>
@@ -9853,13 +9853,13 @@
     </row>
     <row r="661" spans="1:4">
       <c r="A661" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B661" t="s">
         <v>71</v>
       </c>
       <c r="C661">
-        <v>60811</v>
+        <v>58220</v>
       </c>
       <c r="D661" t="s">
         <v>77</v>
@@ -9867,13 +9867,13 @@
     </row>
     <row r="662" spans="1:4">
       <c r="A662" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B662" t="s">
         <v>71</v>
       </c>
       <c r="C662">
-        <v>58992</v>
+        <v>60277</v>
       </c>
       <c r="D662" t="s">
         <v>77</v>
@@ -9881,13 +9881,13 @@
     </row>
     <row r="663" spans="1:4">
       <c r="A663" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B663" t="s">
         <v>71</v>
       </c>
       <c r="C663">
-        <v>58811</v>
+        <v>60823</v>
       </c>
       <c r="D663" t="s">
         <v>77</v>
@@ -9895,13 +9895,13 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B664" t="s">
         <v>71</v>
       </c>
       <c r="C664">
-        <v>56710</v>
+        <v>60811</v>
       </c>
       <c r="D664" t="s">
         <v>77</v>
@@ -9909,13 +9909,13 @@
     </row>
     <row r="665" spans="1:4">
       <c r="A665" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B665" t="s">
         <v>71</v>
       </c>
       <c r="C665">
-        <v>56254</v>
+        <v>58992</v>
       </c>
       <c r="D665" t="s">
         <v>77</v>
@@ -9923,13 +9923,13 @@
     </row>
     <row r="666" spans="1:4">
       <c r="A666" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B666" t="s">
         <v>71</v>
       </c>
       <c r="C666">
-        <v>54656</v>
+        <v>58811</v>
       </c>
       <c r="D666" t="s">
         <v>77</v>
@@ -9937,13 +9937,13 @@
     </row>
     <row r="667" spans="1:4">
       <c r="A667" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B667" t="s">
         <v>71</v>
       </c>
       <c r="C667">
-        <v>56320</v>
+        <v>56710</v>
       </c>
       <c r="D667" t="s">
         <v>77</v>
@@ -9951,13 +9951,13 @@
     </row>
     <row r="668" spans="1:4">
       <c r="A668" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B668" t="s">
         <v>71</v>
       </c>
       <c r="C668">
-        <v>56482</v>
+        <v>56254</v>
       </c>
       <c r="D668" t="s">
         <v>77</v>
@@ -9965,13 +9965,13 @@
     </row>
     <row r="669" spans="1:4">
       <c r="A669" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B669" t="s">
         <v>71</v>
       </c>
       <c r="C669">
-        <v>57489</v>
+        <v>54656</v>
       </c>
       <c r="D669" t="s">
         <v>77</v>
@@ -9979,13 +9979,13 @@
     </row>
     <row r="670" spans="1:4">
       <c r="A670" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B670" t="s">
         <v>71</v>
       </c>
       <c r="C670">
-        <v>60416</v>
+        <v>56320</v>
       </c>
       <c r="D670" t="s">
         <v>77</v>
@@ -9993,13 +9993,13 @@
     </row>
     <row r="671" spans="1:4">
       <c r="A671" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B671" t="s">
         <v>71</v>
       </c>
       <c r="C671">
-        <v>59900</v>
+        <v>56482</v>
       </c>
       <c r="D671" t="s">
         <v>77</v>
@@ -10007,13 +10007,13 @@
     </row>
     <row r="672" spans="1:4">
       <c r="A672" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B672" t="s">
         <v>71</v>
       </c>
       <c r="C672">
-        <v>58278</v>
+        <v>57489</v>
       </c>
       <c r="D672" t="s">
         <v>77</v>
@@ -10021,13 +10021,13 @@
     </row>
     <row r="673" spans="1:4">
       <c r="A673" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B673" t="s">
         <v>71</v>
       </c>
       <c r="C673">
-        <v>59407</v>
+        <v>60416</v>
       </c>
       <c r="D673" t="s">
         <v>77</v>
@@ -10035,13 +10035,13 @@
     </row>
     <row r="674" spans="1:4">
       <c r="A674" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B674" t="s">
         <v>71</v>
       </c>
       <c r="C674">
-        <v>57733</v>
+        <v>59900</v>
       </c>
       <c r="D674" t="s">
         <v>77</v>
@@ -10049,13 +10049,13 @@
     </row>
     <row r="675" spans="1:4">
       <c r="A675" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B675" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C675">
-        <v>63368</v>
+        <v>58278</v>
       </c>
       <c r="D675" t="s">
         <v>77</v>
@@ -10063,13 +10063,13 @@
     </row>
     <row r="676" spans="1:4">
       <c r="A676" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B676" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C676">
-        <v>64355</v>
+        <v>59407</v>
       </c>
       <c r="D676" t="s">
         <v>77</v>
@@ -10077,13 +10077,13 @@
     </row>
     <row r="677" spans="1:4">
       <c r="A677" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B677" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C677">
-        <v>65583</v>
+        <v>57733</v>
       </c>
       <c r="D677" t="s">
         <v>77</v>
@@ -10091,13 +10091,13 @@
     </row>
     <row r="678" spans="1:4">
       <c r="A678" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B678" t="s">
         <v>72</v>
       </c>
       <c r="C678">
-        <v>61823</v>
+        <v>63368</v>
       </c>
       <c r="D678" t="s">
         <v>77</v>
@@ -10105,13 +10105,13 @@
     </row>
     <row r="679" spans="1:4">
       <c r="A679" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B679" t="s">
         <v>72</v>
       </c>
       <c r="C679">
-        <v>61646</v>
+        <v>64355</v>
       </c>
       <c r="D679" t="s">
         <v>77</v>
@@ -10119,13 +10119,13 @@
     </row>
     <row r="680" spans="1:4">
       <c r="A680" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B680" t="s">
         <v>72</v>
       </c>
       <c r="C680">
-        <v>61573</v>
+        <v>65583</v>
       </c>
       <c r="D680" t="s">
         <v>77</v>
@@ -10133,13 +10133,13 @@
     </row>
     <row r="681" spans="1:4">
       <c r="A681" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B681" t="s">
         <v>72</v>
       </c>
       <c r="C681">
-        <v>60811</v>
+        <v>61823</v>
       </c>
       <c r="D681" t="s">
         <v>77</v>
@@ -10147,13 +10147,13 @@
     </row>
     <row r="682" spans="1:4">
       <c r="A682" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B682" t="s">
         <v>72</v>
       </c>
       <c r="C682">
-        <v>58522</v>
+        <v>61646</v>
       </c>
       <c r="D682" t="s">
         <v>77</v>
@@ -10161,13 +10161,13 @@
     </row>
     <row r="683" spans="1:4">
       <c r="A683" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B683" t="s">
         <v>72</v>
       </c>
       <c r="C683">
-        <v>56883</v>
+        <v>61573</v>
       </c>
       <c r="D683" t="s">
         <v>77</v>
@@ -10175,13 +10175,13 @@
     </row>
     <row r="684" spans="1:4">
       <c r="A684" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B684" t="s">
         <v>72</v>
       </c>
       <c r="C684">
-        <v>58078</v>
+        <v>60811</v>
       </c>
       <c r="D684" t="s">
         <v>77</v>
@@ -10189,13 +10189,13 @@
     </row>
     <row r="685" spans="1:4">
       <c r="A685" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B685" t="s">
         <v>72</v>
       </c>
       <c r="C685">
-        <v>56067</v>
+        <v>58522</v>
       </c>
       <c r="D685" t="s">
         <v>77</v>
@@ -10203,13 +10203,13 @@
     </row>
     <row r="686" spans="1:4">
       <c r="A686" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B686" t="s">
         <v>72</v>
       </c>
       <c r="C686">
-        <v>56786</v>
+        <v>56883</v>
       </c>
       <c r="D686" t="s">
         <v>77</v>
@@ -10217,13 +10217,13 @@
     </row>
     <row r="687" spans="1:4">
       <c r="A687" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B687" t="s">
         <v>72</v>
       </c>
       <c r="C687">
-        <v>56619</v>
+        <v>58078</v>
       </c>
       <c r="D687" t="s">
         <v>77</v>
@@ -10231,13 +10231,13 @@
     </row>
     <row r="688" spans="1:4">
       <c r="A688" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B688" t="s">
         <v>72</v>
       </c>
       <c r="C688">
-        <v>56590</v>
+        <v>56067</v>
       </c>
       <c r="D688" t="s">
         <v>77</v>
@@ -10245,13 +10245,13 @@
     </row>
     <row r="689" spans="1:4">
       <c r="A689" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B689" t="s">
         <v>72</v>
       </c>
       <c r="C689">
-        <v>57742</v>
+        <v>56786</v>
       </c>
       <c r="D689" t="s">
         <v>77</v>
@@ -10259,13 +10259,13 @@
     </row>
     <row r="690" spans="1:4">
       <c r="A690" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B690" t="s">
         <v>72</v>
       </c>
       <c r="C690">
-        <v>57510</v>
+        <v>56619</v>
       </c>
       <c r="D690" t="s">
         <v>77</v>
@@ -10273,13 +10273,13 @@
     </row>
     <row r="691" spans="1:4">
       <c r="A691" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B691" t="s">
         <v>72</v>
       </c>
       <c r="C691">
-        <v>60500</v>
+        <v>56590</v>
       </c>
       <c r="D691" t="s">
         <v>77</v>
@@ -10287,13 +10287,13 @@
     </row>
     <row r="692" spans="1:4">
       <c r="A692" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B692" t="s">
         <v>72</v>
       </c>
       <c r="C692">
-        <v>59115</v>
+        <v>57742</v>
       </c>
       <c r="D692" t="s">
         <v>77</v>
@@ -10301,13 +10301,13 @@
     </row>
     <row r="693" spans="1:4">
       <c r="A693" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B693" t="s">
         <v>72</v>
       </c>
       <c r="C693">
-        <v>58603</v>
+        <v>57510</v>
       </c>
       <c r="D693" t="s">
         <v>77</v>
@@ -10315,13 +10315,13 @@
     </row>
     <row r="694" spans="1:4">
       <c r="A694" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B694" t="s">
         <v>72</v>
       </c>
       <c r="C694">
-        <v>58585</v>
+        <v>60500</v>
       </c>
       <c r="D694" t="s">
         <v>77</v>
@@ -10329,13 +10329,13 @@
     </row>
     <row r="695" spans="1:4">
       <c r="A695" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B695" t="s">
         <v>72</v>
       </c>
       <c r="C695">
-        <v>58806</v>
+        <v>59115</v>
       </c>
       <c r="D695" t="s">
         <v>77</v>
@@ -10343,13 +10343,13 @@
     </row>
     <row r="696" spans="1:4">
       <c r="A696" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B696" t="s">
         <v>72</v>
       </c>
       <c r="C696">
-        <v>59687</v>
+        <v>58603</v>
       </c>
       <c r="D696" t="s">
         <v>77</v>
@@ -10357,13 +10357,13 @@
     </row>
     <row r="697" spans="1:4">
       <c r="A697" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B697" t="s">
         <v>72</v>
       </c>
       <c r="C697">
-        <v>59680</v>
+        <v>58585</v>
       </c>
       <c r="D697" t="s">
         <v>77</v>
@@ -10371,13 +10371,13 @@
     </row>
     <row r="698" spans="1:4">
       <c r="A698" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B698" t="s">
         <v>72</v>
       </c>
       <c r="C698">
-        <v>60566</v>
+        <v>58806</v>
       </c>
       <c r="D698" t="s">
         <v>77</v>
@@ -10385,13 +10385,13 @@
     </row>
     <row r="699" spans="1:4">
       <c r="A699" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B699" t="s">
         <v>72</v>
       </c>
       <c r="C699">
-        <v>60918</v>
+        <v>59687</v>
       </c>
       <c r="D699" t="s">
         <v>77</v>
@@ -10399,13 +10399,13 @@
     </row>
     <row r="700" spans="1:4">
       <c r="A700" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B700" t="s">
         <v>72</v>
       </c>
       <c r="C700">
-        <v>59637</v>
+        <v>59680</v>
       </c>
       <c r="D700" t="s">
         <v>77</v>
@@ -10413,13 +10413,13 @@
     </row>
     <row r="701" spans="1:4">
       <c r="A701" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B701" t="s">
         <v>72</v>
       </c>
       <c r="C701">
-        <v>57993</v>
+        <v>60566</v>
       </c>
       <c r="D701" t="s">
         <v>77</v>
@@ -10427,13 +10427,13 @@
     </row>
     <row r="702" spans="1:4">
       <c r="A702" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B702" t="s">
         <v>72</v>
       </c>
       <c r="C702">
-        <v>55929</v>
+        <v>60918</v>
       </c>
       <c r="D702" t="s">
         <v>77</v>
@@ -10441,13 +10441,13 @@
     </row>
     <row r="703" spans="1:4">
       <c r="A703" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B703" t="s">
         <v>72</v>
       </c>
       <c r="C703">
-        <v>54797</v>
+        <v>59637</v>
       </c>
       <c r="D703" t="s">
         <v>77</v>
@@ -10455,13 +10455,13 @@
     </row>
     <row r="704" spans="1:4">
       <c r="A704" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B704" t="s">
         <v>72</v>
       </c>
       <c r="C704">
-        <v>54447</v>
+        <v>57993</v>
       </c>
       <c r="D704" t="s">
         <v>77</v>
@@ -10469,13 +10469,13 @@
     </row>
     <row r="705" spans="1:4">
       <c r="A705" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B705" t="s">
         <v>72</v>
       </c>
       <c r="C705">
-        <v>52659</v>
+        <v>55929</v>
       </c>
       <c r="D705" t="s">
         <v>77</v>
@@ -10483,13 +10483,13 @@
     </row>
     <row r="706" spans="1:4">
       <c r="A706" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B706" t="s">
         <v>72</v>
       </c>
       <c r="C706">
-        <v>52407</v>
+        <v>54797</v>
       </c>
       <c r="D706" t="s">
         <v>77</v>
@@ -10497,13 +10497,13 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B707" t="s">
         <v>72</v>
       </c>
       <c r="C707">
-        <v>52872</v>
+        <v>54447</v>
       </c>
       <c r="D707" t="s">
         <v>77</v>
@@ -10511,13 +10511,13 @@
     </row>
     <row r="708" spans="1:4">
       <c r="A708" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B708" t="s">
         <v>72</v>
       </c>
       <c r="C708">
-        <v>54320</v>
+        <v>52659</v>
       </c>
       <c r="D708" t="s">
         <v>77</v>
@@ -10525,13 +10525,13 @@
     </row>
     <row r="709" spans="1:4">
       <c r="A709" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B709" t="s">
         <v>72</v>
       </c>
       <c r="C709">
-        <v>54730</v>
+        <v>52407</v>
       </c>
       <c r="D709" t="s">
         <v>77</v>
@@ -10539,13 +10539,13 @@
     </row>
     <row r="710" spans="1:4">
       <c r="A710" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B710" t="s">
         <v>72</v>
       </c>
       <c r="C710">
-        <v>54334</v>
+        <v>52872</v>
       </c>
       <c r="D710" t="s">
         <v>77</v>
@@ -10553,13 +10553,13 @@
     </row>
     <row r="711" spans="1:4">
       <c r="A711" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B711" t="s">
         <v>72</v>
       </c>
       <c r="C711">
-        <v>54835</v>
+        <v>54320</v>
       </c>
       <c r="D711" t="s">
         <v>77</v>
@@ -10567,13 +10567,13 @@
     </row>
     <row r="712" spans="1:4">
       <c r="A712" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B712" t="s">
         <v>72</v>
       </c>
       <c r="C712">
-        <v>53432</v>
+        <v>54730</v>
       </c>
       <c r="D712" t="s">
         <v>77</v>
@@ -10581,13 +10581,13 @@
     </row>
     <row r="713" spans="1:4">
       <c r="A713" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B713" t="s">
         <v>72</v>
       </c>
       <c r="C713">
-        <v>51523</v>
+        <v>54334</v>
       </c>
       <c r="D713" t="s">
         <v>77</v>
@@ -10595,13 +10595,13 @@
     </row>
     <row r="714" spans="1:4">
       <c r="A714" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B714" t="s">
         <v>72</v>
       </c>
       <c r="C714">
-        <v>51364</v>
+        <v>54835</v>
       </c>
       <c r="D714" t="s">
         <v>77</v>
@@ -10609,13 +10609,13 @@
     </row>
     <row r="715" spans="1:4">
       <c r="A715" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B715" t="s">
         <v>72</v>
       </c>
       <c r="C715">
-        <v>50293</v>
+        <v>53432</v>
       </c>
       <c r="D715" t="s">
         <v>77</v>
@@ -10623,13 +10623,13 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B716" t="s">
         <v>72</v>
       </c>
       <c r="C716">
-        <v>50290</v>
+        <v>51523</v>
       </c>
       <c r="D716" t="s">
         <v>77</v>
@@ -10637,13 +10637,13 @@
     </row>
     <row r="717" spans="1:4">
       <c r="A717" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B717" t="s">
         <v>72</v>
       </c>
       <c r="C717">
-        <v>49742</v>
+        <v>51364</v>
       </c>
       <c r="D717" t="s">
         <v>77</v>
@@ -10651,13 +10651,13 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B718" t="s">
         <v>72</v>
       </c>
       <c r="C718">
-        <v>51164</v>
+        <v>50293</v>
       </c>
       <c r="D718" t="s">
         <v>77</v>
@@ -10665,13 +10665,13 @@
     </row>
     <row r="719" spans="1:4">
       <c r="A719" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B719" t="s">
         <v>72</v>
       </c>
       <c r="C719">
-        <v>52250</v>
+        <v>50290</v>
       </c>
       <c r="D719" t="s">
         <v>77</v>
@@ -10679,13 +10679,13 @@
     </row>
     <row r="720" spans="1:4">
       <c r="A720" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B720" t="s">
         <v>72</v>
       </c>
       <c r="C720">
-        <v>52187</v>
+        <v>49742</v>
       </c>
       <c r="D720" t="s">
         <v>77</v>
@@ -10693,13 +10693,13 @@
     </row>
     <row r="721" spans="1:4">
       <c r="A721" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B721" t="s">
         <v>72</v>
       </c>
       <c r="C721">
-        <v>50669</v>
+        <v>51164</v>
       </c>
       <c r="D721" t="s">
         <v>77</v>
@@ -10707,13 +10707,13 @@
     </row>
     <row r="722" spans="1:4">
       <c r="A722" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B722" t="s">
         <v>72</v>
       </c>
       <c r="C722">
-        <v>49760</v>
+        <v>52250</v>
       </c>
       <c r="D722" t="s">
         <v>77</v>
@@ -10721,13 +10721,13 @@
     </row>
     <row r="723" spans="1:4">
       <c r="A723" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B723" t="s">
         <v>72</v>
       </c>
       <c r="C723">
-        <v>48390</v>
+        <v>52187</v>
       </c>
       <c r="D723" t="s">
         <v>77</v>
@@ -10735,13 +10735,13 @@
     </row>
     <row r="724" spans="1:4">
       <c r="A724" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B724" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C724">
-        <v>79430</v>
+        <v>50669</v>
       </c>
       <c r="D724" t="s">
         <v>77</v>
@@ -10749,13 +10749,13 @@
     </row>
     <row r="725" spans="1:4">
       <c r="A725" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B725" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C725">
-        <v>78755</v>
+        <v>49760</v>
       </c>
       <c r="D725" t="s">
         <v>77</v>
@@ -10763,13 +10763,13 @@
     </row>
     <row r="726" spans="1:4">
       <c r="A726" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B726" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C726">
-        <v>80297</v>
+        <v>48390</v>
       </c>
       <c r="D726" t="s">
         <v>77</v>
@@ -10777,13 +10777,13 @@
     </row>
     <row r="727" spans="1:4">
       <c r="A727" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B727" t="s">
         <v>73</v>
       </c>
       <c r="C727">
-        <v>75009</v>
+        <v>79430</v>
       </c>
       <c r="D727" t="s">
         <v>77</v>
@@ -10791,13 +10791,13 @@
     </row>
     <row r="728" spans="1:4">
       <c r="A728" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B728" t="s">
         <v>73</v>
       </c>
       <c r="C728">
-        <v>74010</v>
+        <v>78755</v>
       </c>
       <c r="D728" t="s">
         <v>77</v>
@@ -10805,13 +10805,13 @@
     </row>
     <row r="729" spans="1:4">
       <c r="A729" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B729" t="s">
         <v>73</v>
       </c>
       <c r="C729">
-        <v>74624</v>
+        <v>80297</v>
       </c>
       <c r="D729" t="s">
         <v>77</v>
@@ -10819,13 +10819,13 @@
     </row>
     <row r="730" spans="1:4">
       <c r="A730" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B730" t="s">
         <v>73</v>
       </c>
       <c r="C730">
-        <v>72569</v>
+        <v>75009</v>
       </c>
       <c r="D730" t="s">
         <v>77</v>
@@ -10833,13 +10833,13 @@
     </row>
     <row r="731" spans="1:4">
       <c r="A731" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B731" t="s">
         <v>73</v>
       </c>
       <c r="C731">
-        <v>70265</v>
+        <v>74010</v>
       </c>
       <c r="D731" t="s">
         <v>77</v>
@@ -10847,13 +10847,13 @@
     </row>
     <row r="732" spans="1:4">
       <c r="A732" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B732" t="s">
         <v>73</v>
       </c>
       <c r="C732">
-        <v>66085</v>
+        <v>74624</v>
       </c>
       <c r="D732" t="s">
         <v>77</v>
@@ -10861,13 +10861,13 @@
     </row>
     <row r="733" spans="1:4">
       <c r="A733" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B733" t="s">
         <v>73</v>
       </c>
       <c r="C733">
-        <v>69344</v>
+        <v>72569</v>
       </c>
       <c r="D733" t="s">
         <v>77</v>
@@ -10875,13 +10875,13 @@
     </row>
     <row r="734" spans="1:4">
       <c r="A734" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B734" t="s">
         <v>73</v>
       </c>
       <c r="C734">
-        <v>65449</v>
+        <v>70265</v>
       </c>
       <c r="D734" t="s">
         <v>77</v>
@@ -10889,13 +10889,13 @@
     </row>
     <row r="735" spans="1:4">
       <c r="A735" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B735" t="s">
         <v>73</v>
       </c>
       <c r="C735">
-        <v>65208</v>
+        <v>66085</v>
       </c>
       <c r="D735" t="s">
         <v>77</v>
@@ -10903,13 +10903,13 @@
     </row>
     <row r="736" spans="1:4">
       <c r="A736" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B736" t="s">
         <v>73</v>
       </c>
       <c r="C736">
-        <v>63232</v>
+        <v>69344</v>
       </c>
       <c r="D736" t="s">
         <v>77</v>
@@ -10917,13 +10917,13 @@
     </row>
     <row r="737" spans="1:4">
       <c r="A737" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B737" t="s">
         <v>73</v>
       </c>
       <c r="C737">
-        <v>65951</v>
+        <v>65449</v>
       </c>
       <c r="D737" t="s">
         <v>77</v>
@@ -10931,13 +10931,13 @@
     </row>
     <row r="738" spans="1:4">
       <c r="A738" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B738" t="s">
         <v>73</v>
       </c>
       <c r="C738">
-        <v>68145</v>
+        <v>65208</v>
       </c>
       <c r="D738" t="s">
         <v>77</v>
@@ -10945,13 +10945,13 @@
     </row>
     <row r="739" spans="1:4">
       <c r="A739" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B739" t="s">
         <v>73</v>
       </c>
       <c r="C739">
-        <v>69488</v>
+        <v>63232</v>
       </c>
       <c r="D739" t="s">
         <v>77</v>
@@ -10959,13 +10959,13 @@
     </row>
     <row r="740" spans="1:4">
       <c r="A740" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B740" t="s">
         <v>73</v>
       </c>
       <c r="C740">
-        <v>70916</v>
+        <v>65951</v>
       </c>
       <c r="D740" t="s">
         <v>77</v>
@@ -10973,13 +10973,13 @@
     </row>
     <row r="741" spans="1:4">
       <c r="A741" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B741" t="s">
         <v>73</v>
       </c>
       <c r="C741">
-        <v>70383</v>
+        <v>68145</v>
       </c>
       <c r="D741" t="s">
         <v>77</v>
@@ -10987,13 +10987,13 @@
     </row>
     <row r="742" spans="1:4">
       <c r="A742" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B742" t="s">
         <v>73</v>
       </c>
       <c r="C742">
-        <v>69539</v>
+        <v>69488</v>
       </c>
       <c r="D742" t="s">
         <v>77</v>
@@ -11001,13 +11001,13 @@
     </row>
     <row r="743" spans="1:4">
       <c r="A743" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B743" t="s">
         <v>73</v>
       </c>
       <c r="C743">
-        <v>68514</v>
+        <v>70916</v>
       </c>
       <c r="D743" t="s">
         <v>77</v>
@@ -11015,13 +11015,13 @@
     </row>
     <row r="744" spans="1:4">
       <c r="A744" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B744" t="s">
         <v>73</v>
       </c>
       <c r="C744">
-        <v>69138</v>
+        <v>70383</v>
       </c>
       <c r="D744" t="s">
         <v>77</v>
@@ -11029,13 +11029,13 @@
     </row>
     <row r="745" spans="1:4">
       <c r="A745" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B745" t="s">
         <v>73</v>
       </c>
       <c r="C745">
-        <v>68176</v>
+        <v>69539</v>
       </c>
       <c r="D745" t="s">
         <v>77</v>
@@ -11043,13 +11043,13 @@
     </row>
     <row r="746" spans="1:4">
       <c r="A746" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B746" t="s">
         <v>73</v>
       </c>
       <c r="C746">
-        <v>69165</v>
+        <v>68514</v>
       </c>
       <c r="D746" t="s">
         <v>77</v>
@@ -11057,13 +11057,13 @@
     </row>
     <row r="747" spans="1:4">
       <c r="A747" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B747" t="s">
         <v>73</v>
       </c>
       <c r="C747">
-        <v>70862</v>
+        <v>69138</v>
       </c>
       <c r="D747" t="s">
         <v>77</v>
@@ -11071,13 +11071,13 @@
     </row>
     <row r="748" spans="1:4">
       <c r="A748" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B748" t="s">
         <v>73</v>
       </c>
       <c r="C748">
-        <v>69434</v>
+        <v>68176</v>
       </c>
       <c r="D748" t="s">
         <v>77</v>
@@ -11085,13 +11085,13 @@
     </row>
     <row r="749" spans="1:4">
       <c r="A749" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B749" t="s">
         <v>73</v>
       </c>
       <c r="C749">
-        <v>68276</v>
+        <v>69165</v>
       </c>
       <c r="D749" t="s">
         <v>77</v>
@@ -11099,13 +11099,13 @@
     </row>
     <row r="750" spans="1:4">
       <c r="A750" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B750" t="s">
         <v>73</v>
       </c>
       <c r="C750">
-        <v>66126</v>
+        <v>70862</v>
       </c>
       <c r="D750" t="s">
         <v>77</v>
@@ -11113,13 +11113,13 @@
     </row>
     <row r="751" spans="1:4">
       <c r="A751" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B751" t="s">
         <v>73</v>
       </c>
       <c r="C751">
-        <v>64042</v>
+        <v>69434</v>
       </c>
       <c r="D751" t="s">
         <v>77</v>
@@ -11127,13 +11127,13 @@
     </row>
     <row r="752" spans="1:4">
       <c r="A752" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B752" t="s">
         <v>73</v>
       </c>
       <c r="C752">
-        <v>63718</v>
+        <v>68276</v>
       </c>
       <c r="D752" t="s">
         <v>77</v>
@@ -11141,13 +11141,13 @@
     </row>
     <row r="753" spans="1:4">
       <c r="A753" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B753" t="s">
         <v>73</v>
       </c>
       <c r="C753">
-        <v>62483</v>
+        <v>66126</v>
       </c>
       <c r="D753" t="s">
         <v>77</v>
@@ -11155,13 +11155,13 @@
     </row>
     <row r="754" spans="1:4">
       <c r="A754" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B754" t="s">
         <v>73</v>
       </c>
       <c r="C754">
-        <v>62468</v>
+        <v>64042</v>
       </c>
       <c r="D754" t="s">
         <v>77</v>
@@ -11169,13 +11169,13 @@
     </row>
     <row r="755" spans="1:4">
       <c r="A755" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B755" t="s">
         <v>73</v>
       </c>
       <c r="C755">
-        <v>63255</v>
+        <v>63718</v>
       </c>
       <c r="D755" t="s">
         <v>77</v>
@@ -11183,13 +11183,13 @@
     </row>
     <row r="756" spans="1:4">
       <c r="A756" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B756" t="s">
         <v>73</v>
       </c>
       <c r="C756">
-        <v>62745</v>
+        <v>62483</v>
       </c>
       <c r="D756" t="s">
         <v>77</v>
@@ -11197,13 +11197,13 @@
     </row>
     <row r="757" spans="1:4">
       <c r="A757" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B757" t="s">
         <v>73</v>
       </c>
       <c r="C757">
-        <v>64036</v>
+        <v>62468</v>
       </c>
       <c r="D757" t="s">
         <v>77</v>
@@ -11211,13 +11211,13 @@
     </row>
     <row r="758" spans="1:4">
       <c r="A758" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B758" t="s">
         <v>73</v>
       </c>
       <c r="C758">
-        <v>65765</v>
+        <v>63255</v>
       </c>
       <c r="D758" t="s">
         <v>77</v>
@@ -11225,13 +11225,13 @@
     </row>
     <row r="759" spans="1:4">
       <c r="A759" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B759" t="s">
         <v>73</v>
       </c>
       <c r="C759">
-        <v>63672</v>
+        <v>62745</v>
       </c>
       <c r="D759" t="s">
         <v>77</v>
@@ -11239,13 +11239,13 @@
     </row>
     <row r="760" spans="1:4">
       <c r="A760" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B760" t="s">
         <v>73</v>
       </c>
       <c r="C760">
-        <v>63762</v>
+        <v>64036</v>
       </c>
       <c r="D760" t="s">
         <v>77</v>
@@ -11253,13 +11253,13 @@
     </row>
     <row r="761" spans="1:4">
       <c r="A761" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B761" t="s">
         <v>73</v>
       </c>
       <c r="C761">
-        <v>63899</v>
+        <v>65765</v>
       </c>
       <c r="D761" t="s">
         <v>77</v>
@@ -11267,13 +11267,13 @@
     </row>
     <row r="762" spans="1:4">
       <c r="A762" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B762" t="s">
         <v>73</v>
       </c>
       <c r="C762">
-        <v>62082</v>
+        <v>63672</v>
       </c>
       <c r="D762" t="s">
         <v>77</v>
@@ -11281,13 +11281,13 @@
     </row>
     <row r="763" spans="1:4">
       <c r="A763" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B763" t="s">
         <v>73</v>
       </c>
       <c r="C763">
-        <v>60914</v>
+        <v>63762</v>
       </c>
       <c r="D763" t="s">
         <v>77</v>
@@ -11295,13 +11295,13 @@
     </row>
     <row r="764" spans="1:4">
       <c r="A764" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B764" t="s">
         <v>73</v>
       </c>
       <c r="C764">
-        <v>57637</v>
+        <v>63899</v>
       </c>
       <c r="D764" t="s">
         <v>77</v>
@@ -11309,13 +11309,13 @@
     </row>
     <row r="765" spans="1:4">
       <c r="A765" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B765" t="s">
         <v>73</v>
       </c>
       <c r="C765">
-        <v>57326</v>
+        <v>62082</v>
       </c>
       <c r="D765" t="s">
         <v>77</v>
@@ -11323,13 +11323,13 @@
     </row>
     <row r="766" spans="1:4">
       <c r="A766" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B766" t="s">
         <v>73</v>
       </c>
       <c r="C766">
-        <v>58642</v>
+        <v>60914</v>
       </c>
       <c r="D766" t="s">
         <v>77</v>
@@ -11337,13 +11337,13 @@
     </row>
     <row r="767" spans="1:4">
       <c r="A767" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B767" t="s">
         <v>73</v>
       </c>
       <c r="C767">
-        <v>59674</v>
+        <v>57637</v>
       </c>
       <c r="D767" t="s">
         <v>77</v>
@@ -11351,13 +11351,13 @@
     </row>
     <row r="768" spans="1:4">
       <c r="A768" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B768" t="s">
         <v>73</v>
       </c>
       <c r="C768">
-        <v>60901</v>
+        <v>57326</v>
       </c>
       <c r="D768" t="s">
         <v>77</v>
@@ -11365,13 +11365,13 @@
     </row>
     <row r="769" spans="1:4">
       <c r="A769" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B769" t="s">
         <v>73</v>
       </c>
       <c r="C769">
-        <v>59281</v>
+        <v>58642</v>
       </c>
       <c r="D769" t="s">
         <v>77</v>
@@ -11379,13 +11379,13 @@
     </row>
     <row r="770" spans="1:4">
       <c r="A770" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B770" t="s">
         <v>73</v>
       </c>
       <c r="C770">
-        <v>57093</v>
+        <v>59674</v>
       </c>
       <c r="D770" t="s">
         <v>77</v>
@@ -11393,13 +11393,13 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B771" t="s">
         <v>73</v>
       </c>
       <c r="C771">
-        <v>56607</v>
+        <v>60901</v>
       </c>
       <c r="D771" t="s">
         <v>77</v>
@@ -11407,13 +11407,13 @@
     </row>
     <row r="772" spans="1:4">
       <c r="A772" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B772" t="s">
         <v>73</v>
       </c>
       <c r="C772">
-        <v>55966</v>
+        <v>59281</v>
       </c>
       <c r="D772" t="s">
         <v>77</v>
@@ -11421,55 +11421,55 @@
     </row>
     <row r="773" spans="1:4">
       <c r="A773" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B773" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C773">
-        <v>70784</v>
+        <v>57093</v>
       </c>
       <c r="D773" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B774" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C774">
-        <v>71186</v>
+        <v>56607</v>
       </c>
       <c r="D774" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B775" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C775">
-        <v>72808</v>
+        <v>55966</v>
       </c>
       <c r="D775" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B776" t="s">
         <v>74</v>
       </c>
       <c r="C776">
-        <v>68168</v>
+        <v>50803</v>
       </c>
       <c r="D776" t="s">
         <v>75</v>
@@ -11477,13 +11477,13 @@
     </row>
     <row r="777" spans="1:4">
       <c r="A777" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B777" t="s">
         <v>74</v>
       </c>
       <c r="C777">
-        <v>67571</v>
+        <v>52992</v>
       </c>
       <c r="D777" t="s">
         <v>75</v>
@@ -11491,13 +11491,13 @@
     </row>
     <row r="778" spans="1:4">
       <c r="A778" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B778" t="s">
         <v>74</v>
       </c>
       <c r="C778">
-        <v>67832</v>
+        <v>54962</v>
       </c>
       <c r="D778" t="s">
         <v>75</v>
@@ -11505,13 +11505,13 @@
     </row>
     <row r="779" spans="1:4">
       <c r="A779" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B779" t="s">
         <v>74</v>
       </c>
       <c r="C779">
-        <v>66657</v>
+        <v>54536</v>
       </c>
       <c r="D779" t="s">
         <v>75</v>
@@ -11519,13 +11519,13 @@
     </row>
     <row r="780" spans="1:4">
       <c r="A780" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B780" t="s">
         <v>74</v>
       </c>
       <c r="C780">
-        <v>64631</v>
+        <v>54006</v>
       </c>
       <c r="D780" t="s">
         <v>75</v>
@@ -11533,13 +11533,13 @@
     </row>
     <row r="781" spans="1:4">
       <c r="A781" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B781" t="s">
         <v>74</v>
       </c>
       <c r="C781">
-        <v>61468</v>
+        <v>56319</v>
       </c>
       <c r="D781" t="s">
         <v>75</v>
@@ -11547,13 +11547,13 @@
     </row>
     <row r="782" spans="1:4">
       <c r="A782" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B782" t="s">
         <v>74</v>
       </c>
       <c r="C782">
-        <v>62425</v>
+        <v>57456</v>
       </c>
       <c r="D782" t="s">
         <v>75</v>
@@ -11561,13 +11561,13 @@
     </row>
     <row r="783" spans="1:4">
       <c r="A783" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B783" t="s">
         <v>74</v>
       </c>
       <c r="C783">
-        <v>60507</v>
+        <v>55636</v>
       </c>
       <c r="D783" t="s">
         <v>75</v>
@@ -11575,13 +11575,13 @@
     </row>
     <row r="784" spans="1:4">
       <c r="A784" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B784" t="s">
         <v>74</v>
       </c>
       <c r="C784">
-        <v>60313</v>
+        <v>54180</v>
       </c>
       <c r="D784" t="s">
         <v>75</v>
@@ -11589,13 +11589,13 @@
     </row>
     <row r="785" spans="1:4">
       <c r="A785" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B785" t="s">
         <v>74</v>
       </c>
       <c r="C785">
-        <v>60428</v>
+        <v>55078</v>
       </c>
       <c r="D785" t="s">
         <v>75</v>
@@ -11603,13 +11603,13 @@
     </row>
     <row r="786" spans="1:4">
       <c r="A786" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B786" t="s">
         <v>74</v>
       </c>
       <c r="C786">
-        <v>61364</v>
+        <v>55427</v>
       </c>
       <c r="D786" t="s">
         <v>75</v>
@@ -11617,13 +11617,13 @@
     </row>
     <row r="787" spans="1:4">
       <c r="A787" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B787" t="s">
         <v>74</v>
       </c>
       <c r="C787">
-        <v>63011</v>
+        <v>57572</v>
       </c>
       <c r="D787" t="s">
         <v>75</v>
@@ -11631,13 +11631,13 @@
     </row>
     <row r="788" spans="1:4">
       <c r="A788" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B788" t="s">
         <v>74</v>
       </c>
       <c r="C788">
-        <v>63455</v>
+        <v>57462</v>
       </c>
       <c r="D788" t="s">
         <v>75</v>
@@ -11645,13 +11645,13 @@
     </row>
     <row r="789" spans="1:4">
       <c r="A789" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B789" t="s">
         <v>74</v>
       </c>
       <c r="C789">
-        <v>65801</v>
+        <v>55596</v>
       </c>
       <c r="D789" t="s">
         <v>75</v>
@@ -11659,13 +11659,13 @@
     </row>
     <row r="790" spans="1:4">
       <c r="A790" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B790" t="s">
         <v>74</v>
       </c>
       <c r="C790">
-        <v>64930</v>
+        <v>54713</v>
       </c>
       <c r="D790" t="s">
         <v>75</v>
@@ -11673,13 +11673,13 @@
     </row>
     <row r="791" spans="1:4">
       <c r="A791" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B791" t="s">
         <v>74</v>
       </c>
       <c r="C791">
-        <v>64427</v>
+        <v>54564</v>
       </c>
       <c r="D791" t="s">
         <v>75</v>
@@ -11687,13 +11687,13 @@
     </row>
     <row r="792" spans="1:4">
       <c r="A792" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B792" t="s">
         <v>74</v>
       </c>
       <c r="C792">
-        <v>63745</v>
+        <v>54182</v>
       </c>
       <c r="D792" t="s">
         <v>75</v>
@@ -11701,13 +11701,13 @@
     </row>
     <row r="793" spans="1:4">
       <c r="A793" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B793" t="s">
         <v>74</v>
       </c>
       <c r="C793">
-        <v>63967</v>
+        <v>55828</v>
       </c>
       <c r="D793" t="s">
         <v>75</v>
@@ -11715,13 +11715,13 @@
     </row>
     <row r="794" spans="1:4">
       <c r="A794" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B794" t="s">
         <v>74</v>
       </c>
       <c r="C794">
-        <v>64047</v>
+        <v>56871</v>
       </c>
       <c r="D794" t="s">
         <v>75</v>
@@ -11729,13 +11729,13 @@
     </row>
     <row r="795" spans="1:4">
       <c r="A795" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B795" t="s">
         <v>74</v>
       </c>
       <c r="C795">
-        <v>64779</v>
+        <v>58920</v>
       </c>
       <c r="D795" t="s">
         <v>75</v>
@@ -11743,13 +11743,13 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B796" t="s">
         <v>74</v>
       </c>
       <c r="C796">
-        <v>66248</v>
+        <v>59624</v>
       </c>
       <c r="D796" t="s">
         <v>75</v>
@@ -11757,13 +11757,13 @@
     </row>
     <row r="797" spans="1:4">
       <c r="A797" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B797" t="s">
         <v>74</v>
       </c>
       <c r="C797">
-        <v>66385</v>
+        <v>60115</v>
       </c>
       <c r="D797" t="s">
         <v>75</v>
@@ -11771,13 +11771,13 @@
     </row>
     <row r="798" spans="1:4">
       <c r="A798" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B798" t="s">
         <v>74</v>
       </c>
       <c r="C798">
-        <v>64781</v>
+        <v>61153</v>
       </c>
       <c r="D798" t="s">
         <v>75</v>
@@ -11785,13 +11785,13 @@
     </row>
     <row r="799" spans="1:4">
       <c r="A799" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B799" t="s">
         <v>74</v>
       </c>
       <c r="C799">
-        <v>62484</v>
+        <v>60370</v>
       </c>
       <c r="D799" t="s">
         <v>75</v>
@@ -11799,13 +11799,13 @@
     </row>
     <row r="800" spans="1:4">
       <c r="A800" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B800" t="s">
         <v>74</v>
       </c>
       <c r="C800">
-        <v>61225</v>
+        <v>58607</v>
       </c>
       <c r="D800" t="s">
         <v>75</v>
@@ -11813,13 +11813,13 @@
     </row>
     <row r="801" spans="1:4">
       <c r="A801" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B801" t="s">
         <v>74</v>
       </c>
       <c r="C801">
-        <v>60348</v>
+        <v>58153</v>
       </c>
       <c r="D801" t="s">
         <v>75</v>
@@ -11827,13 +11827,13 @@
     </row>
     <row r="802" spans="1:4">
       <c r="A802" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B802" t="s">
         <v>74</v>
       </c>
       <c r="C802">
-        <v>58515</v>
+        <v>57843</v>
       </c>
       <c r="D802" t="s">
         <v>75</v>
@@ -11841,13 +11841,13 @@
     </row>
     <row r="803" spans="1:4">
       <c r="A803" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B803" t="s">
         <v>74</v>
       </c>
       <c r="C803">
-        <v>57843</v>
+        <v>58515</v>
       </c>
       <c r="D803" t="s">
         <v>75</v>
@@ -11855,13 +11855,13 @@
     </row>
     <row r="804" spans="1:4">
       <c r="A804" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B804" t="s">
         <v>74</v>
       </c>
       <c r="C804">
-        <v>58153</v>
+        <v>60348</v>
       </c>
       <c r="D804" t="s">
         <v>75</v>
@@ -11869,13 +11869,13 @@
     </row>
     <row r="805" spans="1:4">
       <c r="A805" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B805" t="s">
         <v>74</v>
       </c>
       <c r="C805">
-        <v>58607</v>
+        <v>61225</v>
       </c>
       <c r="D805" t="s">
         <v>75</v>
@@ -11883,13 +11883,13 @@
     </row>
     <row r="806" spans="1:4">
       <c r="A806" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B806" t="s">
         <v>74</v>
       </c>
       <c r="C806">
-        <v>60370</v>
+        <v>62484</v>
       </c>
       <c r="D806" t="s">
         <v>75</v>
@@ -11897,13 +11897,13 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B807" t="s">
         <v>74</v>
       </c>
       <c r="C807">
-        <v>61153</v>
+        <v>64781</v>
       </c>
       <c r="D807" t="s">
         <v>75</v>
@@ -11911,13 +11911,13 @@
     </row>
     <row r="808" spans="1:4">
       <c r="A808" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B808" t="s">
         <v>74</v>
       </c>
       <c r="C808">
-        <v>60115</v>
+        <v>66385</v>
       </c>
       <c r="D808" t="s">
         <v>75</v>
@@ -11925,13 +11925,13 @@
     </row>
     <row r="809" spans="1:4">
       <c r="A809" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B809" t="s">
         <v>74</v>
       </c>
       <c r="C809">
-        <v>59624</v>
+        <v>66248</v>
       </c>
       <c r="D809" t="s">
         <v>75</v>
@@ -11939,13 +11939,13 @@
     </row>
     <row r="810" spans="1:4">
       <c r="A810" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B810" t="s">
         <v>74</v>
       </c>
       <c r="C810">
-        <v>58920</v>
+        <v>64779</v>
       </c>
       <c r="D810" t="s">
         <v>75</v>
@@ -11953,13 +11953,13 @@
     </row>
     <row r="811" spans="1:4">
       <c r="A811" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B811" t="s">
         <v>74</v>
       </c>
       <c r="C811">
-        <v>56871</v>
+        <v>64047</v>
       </c>
       <c r="D811" t="s">
         <v>75</v>
@@ -11967,13 +11967,13 @@
     </row>
     <row r="812" spans="1:4">
       <c r="A812" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B812" t="s">
         <v>74</v>
       </c>
       <c r="C812">
-        <v>55828</v>
+        <v>63967</v>
       </c>
       <c r="D812" t="s">
         <v>75</v>
@@ -11981,13 +11981,13 @@
     </row>
     <row r="813" spans="1:4">
       <c r="A813" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B813" t="s">
         <v>74</v>
       </c>
       <c r="C813">
-        <v>54182</v>
+        <v>63745</v>
       </c>
       <c r="D813" t="s">
         <v>75</v>
@@ -11995,13 +11995,13 @@
     </row>
     <row r="814" spans="1:4">
       <c r="A814" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B814" t="s">
         <v>74</v>
       </c>
       <c r="C814">
-        <v>54564</v>
+        <v>64427</v>
       </c>
       <c r="D814" t="s">
         <v>75</v>
@@ -12009,13 +12009,13 @@
     </row>
     <row r="815" spans="1:4">
       <c r="A815" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B815" t="s">
         <v>74</v>
       </c>
       <c r="C815">
-        <v>54713</v>
+        <v>64930</v>
       </c>
       <c r="D815" t="s">
         <v>75</v>
@@ -12023,13 +12023,13 @@
     </row>
     <row r="816" spans="1:4">
       <c r="A816" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B816" t="s">
         <v>74</v>
       </c>
       <c r="C816">
-        <v>55596</v>
+        <v>65801</v>
       </c>
       <c r="D816" t="s">
         <v>75</v>
@@ -12037,13 +12037,13 @@
     </row>
     <row r="817" spans="1:4">
       <c r="A817" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B817" t="s">
         <v>74</v>
       </c>
       <c r="C817">
-        <v>57462</v>
+        <v>63455</v>
       </c>
       <c r="D817" t="s">
         <v>75</v>
@@ -12051,13 +12051,13 @@
     </row>
     <row r="818" spans="1:4">
       <c r="A818" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B818" t="s">
         <v>74</v>
       </c>
       <c r="C818">
-        <v>57572</v>
+        <v>63011</v>
       </c>
       <c r="D818" t="s">
         <v>75</v>
@@ -12065,13 +12065,13 @@
     </row>
     <row r="819" spans="1:4">
       <c r="A819" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B819" t="s">
         <v>74</v>
       </c>
       <c r="C819">
-        <v>55427</v>
+        <v>61364</v>
       </c>
       <c r="D819" t="s">
         <v>75</v>
@@ -12079,13 +12079,13 @@
     </row>
     <row r="820" spans="1:4">
       <c r="A820" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B820" t="s">
         <v>74</v>
       </c>
       <c r="C820">
-        <v>55078</v>
+        <v>60428</v>
       </c>
       <c r="D820" t="s">
         <v>75</v>
@@ -12093,13 +12093,13 @@
     </row>
     <row r="821" spans="1:4">
       <c r="A821" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B821" t="s">
         <v>74</v>
       </c>
       <c r="C821">
-        <v>54180</v>
+        <v>60313</v>
       </c>
       <c r="D821" t="s">
         <v>75</v>
@@ -12107,13 +12107,13 @@
     </row>
     <row r="822" spans="1:4">
       <c r="A822" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B822" t="s">
         <v>74</v>
       </c>
       <c r="C822">
-        <v>55636</v>
+        <v>62425</v>
       </c>
       <c r="D822" t="s">
         <v>75</v>
@@ -12121,13 +12121,13 @@
     </row>
     <row r="823" spans="1:4">
       <c r="A823" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B823" t="s">
         <v>74</v>
       </c>
       <c r="C823">
-        <v>57456</v>
+        <v>61468</v>
       </c>
       <c r="D823" t="s">
         <v>75</v>
@@ -12135,13 +12135,13 @@
     </row>
     <row r="824" spans="1:4">
       <c r="A824" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B824" t="s">
         <v>74</v>
       </c>
       <c r="C824">
-        <v>56319</v>
+        <v>64631</v>
       </c>
       <c r="D824" t="s">
         <v>75</v>
@@ -12149,13 +12149,13 @@
     </row>
     <row r="825" spans="1:4">
       <c r="A825" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B825" t="s">
         <v>74</v>
       </c>
       <c r="C825">
-        <v>54006</v>
+        <v>66657</v>
       </c>
       <c r="D825" t="s">
         <v>75</v>
@@ -12163,13 +12163,13 @@
     </row>
     <row r="826" spans="1:4">
       <c r="A826" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B826" t="s">
         <v>74</v>
       </c>
       <c r="C826">
-        <v>54536</v>
+        <v>67571</v>
       </c>
       <c r="D826" t="s">
         <v>75</v>
@@ -12177,13 +12177,13 @@
     </row>
     <row r="827" spans="1:4">
       <c r="A827" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B827" t="s">
         <v>74</v>
       </c>
       <c r="C827">
-        <v>54962</v>
+        <v>68168</v>
       </c>
       <c r="D827" t="s">
         <v>75</v>
@@ -12191,13 +12191,13 @@
     </row>
     <row r="828" spans="1:4">
       <c r="A828" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B828" t="s">
         <v>74</v>
       </c>
       <c r="C828">
-        <v>52992</v>
+        <v>72808</v>
       </c>
       <c r="D828" t="s">
         <v>75</v>
@@ -12205,15 +12205,29 @@
     </row>
     <row r="829" spans="1:4">
       <c r="A829" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B829" t="s">
         <v>74</v>
       </c>
       <c r="C829">
-        <v>50803</v>
+        <v>71186</v>
       </c>
       <c r="D829" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4">
+      <c r="A830" t="s">
+        <v>4</v>
+      </c>
+      <c r="B830" t="s">
+        <v>74</v>
+      </c>
+      <c r="C830">
+        <v>70784</v>
+      </c>
+      <c r="D830" t="s">
         <v>75</v>
       </c>
     </row>
